--- a/Campañas pendientes.xlsx
+++ b/Campañas pendientes.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecmx-my.sharepoint.com/personal/a01741351_tec_mx/Documents/Documents/Tec de Monterrey/Semestre 7/OCJ/Dashboards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7137E4FC-1B98-4680-8E75-7786C07613C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{7137E4FC-1B98-4680-8E75-7786C07613C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4130454C-9F51-41C9-843E-2EE8095908CB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{B7851BD7-3B65-466B-849C-0279DBEF9901}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="3" xr2:uid="{B7851BD7-3B65-466B-849C-0279DBEF9901}"/>
   </bookViews>
   <sheets>
-    <sheet name="Campañas y correos" sheetId="3" r:id="rId1"/>
-    <sheet name="TodasMitec" sheetId="1" r:id="rId2"/>
-    <sheet name="Pendientes" sheetId="2" r:id="rId3"/>
+    <sheet name="Campañas y correos" sheetId="3" state="hidden" r:id="rId1"/>
+    <sheet name="TodasMitec" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="Pendientes" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -97,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="432">
   <si>
     <t>Iniciativa</t>
   </si>
@@ -1288,6 +1289,111 @@
   </si>
   <si>
     <t>Iniciativa [algunos nombres sugeridos]</t>
+  </si>
+  <si>
+    <t>TyE_VPD</t>
+  </si>
+  <si>
+    <t>TyE_VPD_PEGS_CCTA</t>
+  </si>
+  <si>
+    <t>Tecnológico de Monterrey</t>
+  </si>
+  <si>
+    <t>TyE_VPO_charlaJAFnacional_CCTA</t>
+  </si>
+  <si>
+    <t>TyE_VPD_charlaJAFmty_CCTA</t>
+  </si>
+  <si>
+    <t>Campaña</t>
+  </si>
+  <si>
+    <t>CTA</t>
+  </si>
+  <si>
+    <t>Correo en HubSpot</t>
+  </si>
+  <si>
+    <t>Enviado</t>
+  </si>
+  <si>
+    <t>Entregado</t>
+  </si>
+  <si>
+    <t>Tasa de entregas</t>
+  </si>
+  <si>
+    <t>Abierto</t>
+  </si>
+  <si>
+    <t>Tasa de aperturas</t>
+  </si>
+  <si>
+    <t>Recibió clics</t>
+  </si>
+  <si>
+    <t>Tasa de clics</t>
+  </si>
+  <si>
+    <t>Tasa de click-through</t>
+  </si>
+  <si>
+    <t>TyE_Flexibility_Comp</t>
+  </si>
+  <si>
+    <t>TyE_Comp_misBecashijos_conbeca_SCTA</t>
+  </si>
+  <si>
+    <t>TyE_Cambios org</t>
+  </si>
+  <si>
+    <t>TyE_Aca_LíderdeDirectoresdeDepartamentoRegional_JPMyRQ_CCTA</t>
+  </si>
+  <si>
+    <t>Juan Pablo Murra y Raquel Castaño</t>
+  </si>
+  <si>
+    <t>TyE_Comp_Arrendamiento_auto_SCTA</t>
+  </si>
+  <si>
+    <t>TyE_Eventos Inst</t>
+  </si>
+  <si>
+    <t>TyE_Eventos Inst_LEAD_Comunicado_SCTA</t>
+  </si>
+  <si>
+    <t>Avisos TyE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TyE_Eventos Inst_LEAD_Video familiares_CCTA </t>
+  </si>
+  <si>
+    <t>TyE_PowerUp_Bienestar</t>
+  </si>
+  <si>
+    <t>TyE_Bienestar_calaveras_CTA</t>
+  </si>
+  <si>
+    <t>TyE_Bienestar_cuestionario_CTA</t>
+  </si>
+  <si>
+    <t>TyE_Bienestar_video_SCTA</t>
+  </si>
+  <si>
+    <t>TyE_PowerUp_Talento</t>
+  </si>
+  <si>
+    <t>TyE_Talento_Revisión de Talento_03 oct_CCTA</t>
+  </si>
+  <si>
+    <t>TyE_Talento_Revisión de Talento_10 oct_CCTA</t>
+  </si>
+  <si>
+    <t>TyE_VPD_charlaJAFmtyoct_CCTA</t>
+  </si>
+  <si>
+    <t>TyE_VPD_charlaJAFNACoct_CCTA</t>
   </si>
 </sst>
 </file>
@@ -1463,7 +1569,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1527,12 +1633,64 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="25">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1791,30 +1949,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1985,30 +2119,6 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2023,39 +2133,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC22D5E6-3830-4D31-9B0E-8D24BE515ECF}" name="Iniciativas_Mes" displayName="Iniciativas_Mes" ref="A1:G153" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC22D5E6-3830-4D31-9B0E-8D24BE515ECF}" name="Iniciativas_Mes" displayName="Iniciativas_Mes" ref="A1:G153" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A1:G153" xr:uid="{CC22D5E6-3830-4D31-9B0E-8D24BE515ECF}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F07AF7A7-864B-4CC8-990F-971327F62E83}" name="Iniciativa" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{74B45AF4-725C-4CCD-8469-4D217B7E4E6A}" name="Estatus en campañas identificadas" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{6994EBBF-C7D7-42F8-9EAC-E9B6D2A99FBF}" name="MITEC" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{47F57C93-73BA-4F89-892D-D9E632EDAA07}" name="Responsable" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{9B039677-9007-4AD6-9EDE-939D8740A852}" name="Número de clics" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{EDC003B8-AD6E-4906-964B-3F414F6A34D0}" name="Mes" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{F07AF7A7-864B-4CC8-990F-971327F62E83}" name="Iniciativa" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{74B45AF4-725C-4CCD-8469-4D217B7E4E6A}" name="Estatus en campañas identificadas" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{6994EBBF-C7D7-42F8-9EAC-E9B6D2A99FBF}" name="MITEC" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{47F57C93-73BA-4F89-892D-D9E632EDAA07}" name="Responsable" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{9B039677-9007-4AD6-9EDE-939D8740A852}" name="Número de clics" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{EDC003B8-AD6E-4906-964B-3F414F6A34D0}" name="Mes" dataDxfId="17">
       <calculatedColumnFormula>TEXT(G2,"mmmm")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{488B9621-CB26-475F-917F-A10A9DB16787}" name="Mes [Fecha]" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{488B9621-CB26-475F-917F-A10A9DB16787}" name="Mes [Fecha]" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B8DE8896-CF9B-435F-99E4-A721B5FC46E9}" name="Iniciativas_Mes3" displayName="Iniciativas_Mes3" ref="A1:J42" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B8DE8896-CF9B-435F-99E4-A721B5FC46E9}" name="Iniciativas_Mes3" displayName="Iniciativas_Mes3" ref="A1:J42" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:J42" xr:uid="{B8DE8896-CF9B-435F-99E4-A721B5FC46E9}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{D2209629-4391-4F36-99E0-BBEAA69322DF}" name="Iniciativa [algunos nombres sugeridos]" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{3523913F-863D-405D-9E48-FAFA58352E9A}" name="1er prefijo (TyE)" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{23B65720-66E8-4F2D-9FA0-E877F1C9B761}" name="2do prefijo (pilar)" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{CCCB372E-52C8-44F4-B24B-EC668C9769C6}" name="3er prefijo (area o VP)" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{FF98674D-529E-4F10-8CF9-855DDF3E3B07}" name="Nombre de campaña" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{AACD2F83-435F-4B66-8432-C157C362AEE0}" name="MITEC" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{410EA000-2ABD-4626-9CC1-C712C7B5EEC9}" name="Responsable" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{25D4C291-17D3-41F1-9FF9-1623B6B08C2C}" name="Número de clics" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{135AD113-6340-475C-92EC-5476C01C2DCF}" name="Mes" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{D2209629-4391-4F36-99E0-BBEAA69322DF}" name="Iniciativa [algunos nombres sugeridos]" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{3523913F-863D-405D-9E48-FAFA58352E9A}" name="1er prefijo (TyE)" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{23B65720-66E8-4F2D-9FA0-E877F1C9B761}" name="2do prefijo (pilar)" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{CCCB372E-52C8-44F4-B24B-EC668C9769C6}" name="3er prefijo (area o VP)" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{FF98674D-529E-4F10-8CF9-855DDF3E3B07}" name="Nombre de campaña" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{AACD2F83-435F-4B66-8432-C157C362AEE0}" name="MITEC" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{410EA000-2ABD-4626-9CC1-C712C7B5EEC9}" name="Responsable" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{25D4C291-17D3-41F1-9FF9-1623B6B08C2C}" name="Número de clics" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{135AD113-6340-475C-92EC-5476C01C2DCF}" name="Mes" dataDxfId="5">
       <calculatedColumnFormula>TEXT(J2,"mmmm")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{006097D6-9722-495C-B489-C96D39B7D15D}" name="Mes [Fecha]" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{006097D6-9722-495C-B489-C96D39B7D15D}" name="Mes [Fecha]" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11856,12 +11966,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H80">
-    <cfRule type="expression" dxfId="24" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>#REF!="No encontrado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:G153">
-    <cfRule type="expression" dxfId="23" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$B2="No encontrado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11876,7 +11986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B51775B9-C7B9-4209-81CD-2C3E0B9C61CC}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -12917,12 +13027,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K20">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>#REF!="No encontrado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:J42">
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>#REF!="No encontrado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12931,4 +13041,750 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520A1C47-7586-4293-9779-35D19E539CD2}">
+  <dimension ref="A1:O16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="6" max="6" width="38.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C2" t="str">
+        <f>TEXT(D2,"mmmm")&amp;" "&amp;TEXT(D2,"aaaa")</f>
+        <v>agosto 2022</v>
+      </c>
+      <c r="D2" s="29">
+        <v>44774</v>
+      </c>
+      <c r="E2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2" t="s">
+        <v>398</v>
+      </c>
+      <c r="G2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H2">
+        <v>27111</v>
+      </c>
+      <c r="I2">
+        <v>26943</v>
+      </c>
+      <c r="J2">
+        <v>99.38</v>
+      </c>
+      <c r="K2">
+        <v>11863</v>
+      </c>
+      <c r="L2">
+        <v>44.03</v>
+      </c>
+      <c r="M2">
+        <v>835</v>
+      </c>
+      <c r="N2">
+        <v>3.0990000000000002</v>
+      </c>
+      <c r="O2">
+        <v>7.0389999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C3" t="str">
+        <f>TEXT(D3,"mmmm")&amp;" "&amp;TEXT(D3,"aaaa")</f>
+        <v>agosto 2022</v>
+      </c>
+      <c r="D3" s="29">
+        <v>44774</v>
+      </c>
+      <c r="E3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3" t="s">
+        <v>400</v>
+      </c>
+      <c r="G3" t="s">
+        <v>399</v>
+      </c>
+      <c r="H3">
+        <v>10743</v>
+      </c>
+      <c r="I3">
+        <v>10727</v>
+      </c>
+      <c r="J3">
+        <v>99.850999999999999</v>
+      </c>
+      <c r="K3">
+        <v>4798</v>
+      </c>
+      <c r="L3">
+        <v>44.728000000000002</v>
+      </c>
+      <c r="M3">
+        <v>298</v>
+      </c>
+      <c r="N3">
+        <v>2.778</v>
+      </c>
+      <c r="O3">
+        <v>6.2110000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C4" t="str">
+        <f>TEXT(D4,"mmmm")&amp;" "&amp;TEXT(D4,"aaaa")</f>
+        <v>agosto 2022</v>
+      </c>
+      <c r="D4" s="29">
+        <v>44774</v>
+      </c>
+      <c r="E4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4" t="s">
+        <v>401</v>
+      </c>
+      <c r="G4" t="s">
+        <v>399</v>
+      </c>
+      <c r="H4">
+        <v>12159</v>
+      </c>
+      <c r="I4">
+        <v>12136</v>
+      </c>
+      <c r="J4">
+        <v>99.811000000000007</v>
+      </c>
+      <c r="K4">
+        <v>5016</v>
+      </c>
+      <c r="L4">
+        <v>41.332000000000001</v>
+      </c>
+      <c r="M4">
+        <v>335</v>
+      </c>
+      <c r="N4">
+        <v>2.76</v>
+      </c>
+      <c r="O4">
+        <v>6.6790000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C5" t="str">
+        <f>TEXT(D5,"mmmm")&amp;" "&amp;TEXT(D5,"aaaa")</f>
+        <v>agosto 2022</v>
+      </c>
+      <c r="D5" s="29">
+        <v>44774</v>
+      </c>
+      <c r="E5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" t="s">
+        <v>414</v>
+      </c>
+      <c r="G5" t="s">
+        <v>399</v>
+      </c>
+      <c r="H5">
+        <v>1092</v>
+      </c>
+      <c r="I5">
+        <v>1092</v>
+      </c>
+      <c r="J5">
+        <v>100</v>
+      </c>
+      <c r="K5">
+        <v>760</v>
+      </c>
+      <c r="L5">
+        <v>69.596999999999994</v>
+      </c>
+      <c r="M5">
+        <v>94</v>
+      </c>
+      <c r="N5">
+        <v>8.6080000000000005</v>
+      </c>
+      <c r="O5">
+        <v>12.368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>415</v>
+      </c>
+      <c r="C6" t="str">
+        <f>TEXT(D6,"mmmm")&amp;" "&amp;TEXT(D6,"aaaa")</f>
+        <v>septiembre 2022</v>
+      </c>
+      <c r="D6" s="29">
+        <v>44805</v>
+      </c>
+      <c r="E6" t="s">
+        <v>237</v>
+      </c>
+      <c r="F6" t="s">
+        <v>416</v>
+      </c>
+      <c r="G6" t="s">
+        <v>417</v>
+      </c>
+      <c r="H6">
+        <v>636</v>
+      </c>
+      <c r="I6">
+        <v>635</v>
+      </c>
+      <c r="J6">
+        <v>99.843000000000004</v>
+      </c>
+      <c r="K6">
+        <v>404</v>
+      </c>
+      <c r="L6">
+        <v>63.622</v>
+      </c>
+      <c r="M6">
+        <v>89</v>
+      </c>
+      <c r="N6">
+        <v>14.016</v>
+      </c>
+      <c r="O6">
+        <v>22.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>413</v>
+      </c>
+      <c r="C7" t="str">
+        <f>TEXT(D7,"mmmm")&amp;" "&amp;TEXT(D7,"aaaa")</f>
+        <v>septiembre 2022</v>
+      </c>
+      <c r="D7" s="29">
+        <v>44805</v>
+      </c>
+      <c r="E7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F7" t="s">
+        <v>418</v>
+      </c>
+      <c r="G7" t="s">
+        <v>399</v>
+      </c>
+      <c r="H7">
+        <v>82</v>
+      </c>
+      <c r="I7">
+        <v>82</v>
+      </c>
+      <c r="J7">
+        <v>100</v>
+      </c>
+      <c r="K7">
+        <v>70</v>
+      </c>
+      <c r="L7">
+        <v>85.366</v>
+      </c>
+      <c r="M7">
+        <v>7</v>
+      </c>
+      <c r="N7">
+        <v>8.5370000000000008</v>
+      </c>
+      <c r="O7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>419</v>
+      </c>
+      <c r="C8" t="str">
+        <f>TEXT(D8,"mmmm")&amp;" "&amp;TEXT(D8,"aaaa")</f>
+        <v>octubre 2022</v>
+      </c>
+      <c r="D8" s="29">
+        <v>44835</v>
+      </c>
+      <c r="E8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F8" t="s">
+        <v>420</v>
+      </c>
+      <c r="G8" t="s">
+        <v>421</v>
+      </c>
+      <c r="H8">
+        <v>30</v>
+      </c>
+      <c r="I8">
+        <v>30</v>
+      </c>
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8">
+        <v>11</v>
+      </c>
+      <c r="L8">
+        <v>36.667000000000002</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>419</v>
+      </c>
+      <c r="C9" t="str">
+        <f>TEXT(D9,"mmmm")&amp;" "&amp;TEXT(D9,"aaaa")</f>
+        <v>octubre 2022</v>
+      </c>
+      <c r="D9" s="29">
+        <v>44835</v>
+      </c>
+      <c r="E9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G9" t="s">
+        <v>421</v>
+      </c>
+      <c r="H9">
+        <v>35</v>
+      </c>
+      <c r="I9">
+        <v>35</v>
+      </c>
+      <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="K9">
+        <v>27</v>
+      </c>
+      <c r="L9">
+        <v>77.143000000000001</v>
+      </c>
+      <c r="M9">
+        <v>6</v>
+      </c>
+      <c r="N9">
+        <v>17.143000000000001</v>
+      </c>
+      <c r="O9">
+        <v>22.222000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" t="s">
+        <v>423</v>
+      </c>
+      <c r="C10" t="str">
+        <f>TEXT(D10,"mmmm")&amp;" "&amp;TEXT(D10,"aaaa")</f>
+        <v>octubre 2022</v>
+      </c>
+      <c r="D10" s="29">
+        <v>44835</v>
+      </c>
+      <c r="E10" t="s">
+        <v>237</v>
+      </c>
+      <c r="F10" t="s">
+        <v>424</v>
+      </c>
+      <c r="G10" t="s">
+        <v>399</v>
+      </c>
+      <c r="H10">
+        <v>32742</v>
+      </c>
+      <c r="I10">
+        <v>32674</v>
+      </c>
+      <c r="J10">
+        <v>99.792000000000002</v>
+      </c>
+      <c r="K10">
+        <v>13483</v>
+      </c>
+      <c r="L10">
+        <v>41.265000000000001</v>
+      </c>
+      <c r="M10">
+        <v>1629</v>
+      </c>
+      <c r="N10">
+        <v>4.9859999999999998</v>
+      </c>
+      <c r="O10">
+        <v>12.082000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" t="s">
+        <v>423</v>
+      </c>
+      <c r="C11" t="str">
+        <f>TEXT(D11,"mmmm")&amp;" "&amp;TEXT(D11,"aaaa")</f>
+        <v>octubre 2022</v>
+      </c>
+      <c r="D11" s="29">
+        <v>44835</v>
+      </c>
+      <c r="E11" t="s">
+        <v>237</v>
+      </c>
+      <c r="F11" t="s">
+        <v>425</v>
+      </c>
+      <c r="G11" t="s">
+        <v>399</v>
+      </c>
+      <c r="H11">
+        <v>10042</v>
+      </c>
+      <c r="I11">
+        <v>10014</v>
+      </c>
+      <c r="J11">
+        <v>99.721000000000004</v>
+      </c>
+      <c r="K11">
+        <v>4222</v>
+      </c>
+      <c r="L11">
+        <v>42.161000000000001</v>
+      </c>
+      <c r="M11">
+        <v>1274</v>
+      </c>
+      <c r="N11">
+        <v>12.722</v>
+      </c>
+      <c r="O11">
+        <v>30.175000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>423</v>
+      </c>
+      <c r="C12" t="str">
+        <f>TEXT(D12,"mmmm")&amp;" "&amp;TEXT(D12,"aaaa")</f>
+        <v>octubre 2022</v>
+      </c>
+      <c r="D12" s="29">
+        <v>44835</v>
+      </c>
+      <c r="E12" t="s">
+        <v>238</v>
+      </c>
+      <c r="F12" t="s">
+        <v>426</v>
+      </c>
+      <c r="G12" t="s">
+        <v>399</v>
+      </c>
+      <c r="H12">
+        <v>36454</v>
+      </c>
+      <c r="I12">
+        <v>34743</v>
+      </c>
+      <c r="J12">
+        <v>95.305999999999997</v>
+      </c>
+      <c r="K12">
+        <v>11954</v>
+      </c>
+      <c r="L12">
+        <v>34.406999999999996</v>
+      </c>
+      <c r="M12">
+        <v>1366</v>
+      </c>
+      <c r="N12">
+        <v>3.9319999999999999</v>
+      </c>
+      <c r="O12">
+        <v>11.427</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" t="s">
+        <v>427</v>
+      </c>
+      <c r="C13" t="str">
+        <f>TEXT(D13,"mmmm")&amp;" "&amp;TEXT(D13,"aaaa")</f>
+        <v>octubre 2022</v>
+      </c>
+      <c r="D13" s="29">
+        <v>44835</v>
+      </c>
+      <c r="E13" t="s">
+        <v>237</v>
+      </c>
+      <c r="F13" t="s">
+        <v>428</v>
+      </c>
+      <c r="G13" t="s">
+        <v>399</v>
+      </c>
+      <c r="H13">
+        <v>806</v>
+      </c>
+      <c r="I13">
+        <v>803</v>
+      </c>
+      <c r="J13">
+        <v>99.628</v>
+      </c>
+      <c r="K13">
+        <v>508</v>
+      </c>
+      <c r="L13">
+        <v>63.262999999999998</v>
+      </c>
+      <c r="M13">
+        <v>111</v>
+      </c>
+      <c r="N13">
+        <v>13.823</v>
+      </c>
+      <c r="O13">
+        <v>21.85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" t="s">
+        <v>427</v>
+      </c>
+      <c r="C14" t="str">
+        <f>TEXT(D14,"mmmm")&amp;" "&amp;TEXT(D14,"aaaa")</f>
+        <v>octubre 2022</v>
+      </c>
+      <c r="D14" s="29">
+        <v>44835</v>
+      </c>
+      <c r="E14" t="s">
+        <v>237</v>
+      </c>
+      <c r="F14" t="s">
+        <v>429</v>
+      </c>
+      <c r="G14" t="s">
+        <v>399</v>
+      </c>
+      <c r="H14">
+        <v>805</v>
+      </c>
+      <c r="I14">
+        <v>802</v>
+      </c>
+      <c r="J14">
+        <v>99.626999999999995</v>
+      </c>
+      <c r="K14">
+        <v>468</v>
+      </c>
+      <c r="L14">
+        <v>58.353999999999999</v>
+      </c>
+      <c r="M14">
+        <v>91</v>
+      </c>
+      <c r="N14">
+        <v>11.347</v>
+      </c>
+      <c r="O14">
+        <v>19.443999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>397</v>
+      </c>
+      <c r="C15" t="str">
+        <f>TEXT(D15,"mmmm")&amp;" "&amp;TEXT(D15,"aaaa")</f>
+        <v>octubre 2022</v>
+      </c>
+      <c r="D15" s="29">
+        <v>44835</v>
+      </c>
+      <c r="E15" t="s">
+        <v>237</v>
+      </c>
+      <c r="F15" t="s">
+        <v>430</v>
+      </c>
+      <c r="G15" t="s">
+        <v>399</v>
+      </c>
+      <c r="H15">
+        <v>12870</v>
+      </c>
+      <c r="I15">
+        <v>12833</v>
+      </c>
+      <c r="J15">
+        <v>99.712999999999994</v>
+      </c>
+      <c r="K15">
+        <v>5472</v>
+      </c>
+      <c r="L15">
+        <v>42.64</v>
+      </c>
+      <c r="M15">
+        <v>336</v>
+      </c>
+      <c r="N15">
+        <v>2.6179999999999999</v>
+      </c>
+      <c r="O15">
+        <v>6.14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>397</v>
+      </c>
+      <c r="C16" t="str">
+        <f>TEXT(D16,"mmmm")&amp;" "&amp;TEXT(D16,"aaaa")</f>
+        <v>octubre 2022</v>
+      </c>
+      <c r="D16" s="29">
+        <v>44835</v>
+      </c>
+      <c r="E16" t="s">
+        <v>237</v>
+      </c>
+      <c r="F16" t="s">
+        <v>431</v>
+      </c>
+      <c r="G16" t="s">
+        <v>399</v>
+      </c>
+      <c r="H16">
+        <v>17915</v>
+      </c>
+      <c r="I16">
+        <v>17869</v>
+      </c>
+      <c r="J16">
+        <v>99.742999999999995</v>
+      </c>
+      <c r="K16">
+        <v>7323</v>
+      </c>
+      <c r="L16">
+        <v>40.981999999999999</v>
+      </c>
+      <c r="M16">
+        <v>422</v>
+      </c>
+      <c r="N16">
+        <v>2.3620000000000001</v>
+      </c>
+      <c r="O16">
+        <v>5.7629999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Campañas pendientes.xlsx
+++ b/Campañas pendientes.xlsx
@@ -8,16 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecmx-my.sharepoint.com/personal/a01741351_tec_mx/Documents/Documents/Tec de Monterrey/Semestre 7/OCJ/Dashboards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{7137E4FC-1B98-4680-8E75-7786C07613C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4130454C-9F51-41C9-843E-2EE8095908CB}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{7137E4FC-1B98-4680-8E75-7786C07613C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7303E4B-259A-41BE-89A1-4913F968891F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="3" xr2:uid="{B7851BD7-3B65-466B-849C-0279DBEF9901}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="4" xr2:uid="{B7851BD7-3B65-466B-849C-0279DBEF9901}"/>
   </bookViews>
   <sheets>
     <sheet name="Campañas y correos" sheetId="3" state="hidden" r:id="rId1"/>
     <sheet name="TodasMitec" sheetId="1" state="hidden" r:id="rId2"/>
     <sheet name="Pendientes" sheetId="2" state="hidden" r:id="rId3"/>
-    <sheet name="Hoja1" sheetId="4" r:id="rId4"/>
+    <sheet name="Campañas e iniciativas" sheetId="5" r:id="rId4"/>
+    <sheet name="Campañas pendientes" sheetId="4" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Campañas e iniciativas'!$A$1:$K$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -98,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2887" uniqueCount="479">
   <si>
     <t>Iniciativa</t>
   </si>
@@ -1394,13 +1398,154 @@
   </si>
   <si>
     <t>TyE_VPD_charlaJAFNACoct_CCTA</t>
+  </si>
+  <si>
+    <t>CEDDIE</t>
+  </si>
+  <si>
+    <t>CIIE</t>
+  </si>
+  <si>
+    <t>Educación Continua</t>
+  </si>
+  <si>
+    <t>Global Shared Learning Room</t>
+  </si>
+  <si>
+    <t>Innovación Educativa</t>
+  </si>
+  <si>
+    <t>Inspira</t>
+  </si>
+  <si>
+    <t>Investigación</t>
+  </si>
+  <si>
+    <t>Otros - Academia</t>
+  </si>
+  <si>
+    <t>Patrimonio cultural</t>
+  </si>
+  <si>
+    <t>Programa becario</t>
+  </si>
+  <si>
+    <t>ULead</t>
+  </si>
+  <si>
+    <t>Visor de calificaciones</t>
+  </si>
+  <si>
+    <t>Herramientas digitales</t>
+  </si>
+  <si>
+    <t>MiTEC</t>
+  </si>
+  <si>
+    <t>MiTEC - Queremos escucharte</t>
+  </si>
+  <si>
+    <t>Renovación de línea</t>
+  </si>
+  <si>
+    <t>TyE_Eventos Institucionales</t>
+  </si>
+  <si>
+    <t>Mundial de Qatar</t>
+  </si>
+  <si>
+    <t>Conferencias</t>
+  </si>
+  <si>
+    <t>Encuestas EFY</t>
+  </si>
+  <si>
+    <t>Princeton</t>
+  </si>
+  <si>
+    <t>Beneflex por desempeño</t>
+  </si>
+  <si>
+    <t>Mi caja de ahorro</t>
+  </si>
+  <si>
+    <t>Vehiculos</t>
+  </si>
+  <si>
+    <t>Declaracion Anual</t>
+  </si>
+  <si>
+    <t>Incremento anual</t>
+  </si>
+  <si>
+    <t>Mi Apoyo comida</t>
+  </si>
+  <si>
+    <t>Vales</t>
+  </si>
+  <si>
+    <t>SACSCOC</t>
+  </si>
+  <si>
+    <t>Tec On Demand</t>
+  </si>
+  <si>
+    <t>Diabetes</t>
+  </si>
+  <si>
+    <t>Maternidad</t>
+  </si>
+  <si>
+    <t>On Campus Interns</t>
+  </si>
+  <si>
+    <t>Charlas de Pasillo con David Garza</t>
+  </si>
+  <si>
+    <t>DAVOS</t>
+  </si>
+  <si>
+    <t>TyE_Presidencia</t>
+  </si>
+  <si>
+    <t>Expedition</t>
+  </si>
+  <si>
+    <t>Graduacion TEC</t>
+  </si>
+  <si>
+    <t>Informe Anual</t>
+  </si>
+  <si>
+    <t>Inicio de ciclo</t>
+  </si>
+  <si>
+    <t>Promoción ST</t>
+  </si>
+  <si>
+    <t>Organizaciones Positivas</t>
+  </si>
+  <si>
+    <t>Sorteo Líder a Líder</t>
+  </si>
+  <si>
+    <t>CNDH</t>
+  </si>
+  <si>
+    <t>Mujer Tec</t>
+  </si>
+  <si>
+    <t>VPF</t>
+  </si>
+  <si>
+    <t>Borregos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1493,8 +1638,52 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1555,6 +1744,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1569,7 +1764,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1637,60 +1832,48 @@
     <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="25">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1949,6 +2132,30 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2119,6 +2326,30 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2133,39 +2364,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC22D5E6-3830-4D31-9B0E-8D24BE515ECF}" name="Iniciativas_Mes" displayName="Iniciativas_Mes" ref="A1:G153" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC22D5E6-3830-4D31-9B0E-8D24BE515ECF}" name="Iniciativas_Mes" displayName="Iniciativas_Mes" ref="A1:G153" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A1:G153" xr:uid="{CC22D5E6-3830-4D31-9B0E-8D24BE515ECF}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F07AF7A7-864B-4CC8-990F-971327F62E83}" name="Iniciativa" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{74B45AF4-725C-4CCD-8469-4D217B7E4E6A}" name="Estatus en campañas identificadas" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{6994EBBF-C7D7-42F8-9EAC-E9B6D2A99FBF}" name="MITEC" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{47F57C93-73BA-4F89-892D-D9E632EDAA07}" name="Responsable" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{9B039677-9007-4AD6-9EDE-939D8740A852}" name="Número de clics" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{EDC003B8-AD6E-4906-964B-3F414F6A34D0}" name="Mes" dataDxfId="17">
+    <tableColumn id="1" xr3:uid="{F07AF7A7-864B-4CC8-990F-971327F62E83}" name="Iniciativa" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{74B45AF4-725C-4CCD-8469-4D217B7E4E6A}" name="Estatus en campañas identificadas" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{6994EBBF-C7D7-42F8-9EAC-E9B6D2A99FBF}" name="MITEC" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{47F57C93-73BA-4F89-892D-D9E632EDAA07}" name="Responsable" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{9B039677-9007-4AD6-9EDE-939D8740A852}" name="Número de clics" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{EDC003B8-AD6E-4906-964B-3F414F6A34D0}" name="Mes" dataDxfId="15">
       <calculatedColumnFormula>TEXT(G2,"mmmm")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{488B9621-CB26-475F-917F-A10A9DB16787}" name="Mes [Fecha]" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{488B9621-CB26-475F-917F-A10A9DB16787}" name="Mes [Fecha]" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B8DE8896-CF9B-435F-99E4-A721B5FC46E9}" name="Iniciativas_Mes3" displayName="Iniciativas_Mes3" ref="A1:J42" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B8DE8896-CF9B-435F-99E4-A721B5FC46E9}" name="Iniciativas_Mes3" displayName="Iniciativas_Mes3" ref="A1:J42" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:J42" xr:uid="{B8DE8896-CF9B-435F-99E4-A721B5FC46E9}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{D2209629-4391-4F36-99E0-BBEAA69322DF}" name="Iniciativa [algunos nombres sugeridos]" dataDxfId="13"/>
-    <tableColumn id="11" xr3:uid="{3523913F-863D-405D-9E48-FAFA58352E9A}" name="1er prefijo (TyE)" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{23B65720-66E8-4F2D-9FA0-E877F1C9B761}" name="2do prefijo (pilar)" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{CCCB372E-52C8-44F4-B24B-EC668C9769C6}" name="3er prefijo (area o VP)" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{FF98674D-529E-4F10-8CF9-855DDF3E3B07}" name="Nombre de campaña" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{AACD2F83-435F-4B66-8432-C157C362AEE0}" name="MITEC" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{410EA000-2ABD-4626-9CC1-C712C7B5EEC9}" name="Responsable" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{25D4C291-17D3-41F1-9FF9-1623B6B08C2C}" name="Número de clics" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{135AD113-6340-475C-92EC-5476C01C2DCF}" name="Mes" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{D2209629-4391-4F36-99E0-BBEAA69322DF}" name="Iniciativa [algunos nombres sugeridos]" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{3523913F-863D-405D-9E48-FAFA58352E9A}" name="1er prefijo (TyE)" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{23B65720-66E8-4F2D-9FA0-E877F1C9B761}" name="2do prefijo (pilar)" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{CCCB372E-52C8-44F4-B24B-EC668C9769C6}" name="3er prefijo (area o VP)" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{FF98674D-529E-4F10-8CF9-855DDF3E3B07}" name="Nombre de campaña" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{AACD2F83-435F-4B66-8432-C157C362AEE0}" name="MITEC" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{410EA000-2ABD-4626-9CC1-C712C7B5EEC9}" name="Responsable" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{25D4C291-17D3-41F1-9FF9-1623B6B08C2C}" name="Número de clics" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{135AD113-6340-475C-92EC-5476C01C2DCF}" name="Mes" dataDxfId="1">
       <calculatedColumnFormula>TEXT(J2,"mmmm")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{006097D6-9722-495C-B489-C96D39B7D15D}" name="Mes [Fecha]" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{006097D6-9722-495C-B489-C96D39B7D15D}" name="Mes [Fecha]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11966,12 +12197,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H80">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="24" priority="1">
       <formula>#REF!="No encontrado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:G153">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="23" priority="2">
       <formula>$B2="No encontrado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13027,12 +13258,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K20">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>#REF!="No encontrado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:J42">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>#REF!="No encontrado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13044,11 +13275,6328 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E1171F0-6A3E-4532-AEB2-6D6935A4337D}">
+  <dimension ref="A1:K165"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="43.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" customWidth="1"/>
+    <col min="10" max="10" width="47.28515625" customWidth="1"/>
+    <col min="11" max="11" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" s="35" t="str">
+        <f t="shared" ref="F2:F20" si="0">IF(D2="",C2&amp;"_"&amp;E2,IF(D2="Aca",C2&amp;"_"&amp;E2,C2&amp;"_"&amp;D2&amp;"_"&amp;E2))</f>
+        <v>TyE_Academia</v>
+      </c>
+      <c r="G2" s="33" t="str">
+        <f t="shared" ref="G2:G65" si="1">IF(F2="TyE_Academia",C2&amp;"_"&amp;D2&amp;"_"&amp;A2,F2&amp;"_"&amp;A2)</f>
+        <v>TyE_Aca_Biblioteca</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J2" s="3" t="str">
+        <f t="shared" ref="J2:J65" si="2">G2&amp;"_"&amp;H2</f>
+        <v>TyE_Aca_Biblioteca_CCTA</v>
+      </c>
+      <c r="K2" s="3" t="str">
+        <f t="shared" ref="K2:K65" si="3">G2&amp;"_"&amp;I2</f>
+        <v>TyE_Aca_Biblioteca_SCTA</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F3" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>TyE_Academia</v>
+      </c>
+      <c r="G3" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Aca_Bienvenida</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J3" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Aca_Bienvenida_CCTA</v>
+      </c>
+      <c r="K3" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Aca_Bienvenida_SCTA</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F4" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>TyE_Academia</v>
+      </c>
+      <c r="G4" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Aca_CEDDIE</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J4" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Aca_CEDDIE_CCTA</v>
+      </c>
+      <c r="K4" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Aca_CEDDIE_SCTA</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F5" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>TyE_Academia</v>
+      </c>
+      <c r="G5" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Aca_CIIE</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J5" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Aca_CIIE_CCTA</v>
+      </c>
+      <c r="K5" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Aca_CIIE_SCTA</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F6" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>TyE_Academia</v>
+      </c>
+      <c r="G6" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Aca_CIMA</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J6" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Aca_CIMA_CCTA</v>
+      </c>
+      <c r="K6" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Aca_CIMA_SCTA</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F7" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>TyE_Academia</v>
+      </c>
+      <c r="G7" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Aca_Clasificación docente</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J7" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Aca_Clasificación docente_CCTA</v>
+      </c>
+      <c r="K7" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Aca_Clasificación docente_SCTA</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F8" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>TyE_Academia</v>
+      </c>
+      <c r="G8" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Aca_ECOA</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J8" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Aca_ECOA_CCTA</v>
+      </c>
+      <c r="K8" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Aca_ECOA_SCTA</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F9" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>TyE_Academia</v>
+      </c>
+      <c r="G9" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Aca_Educación Continua</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J9" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Aca_Educación Continua_CCTA</v>
+      </c>
+      <c r="K9" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Aca_Educación Continua_SCTA</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F10" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>TyE_Academia</v>
+      </c>
+      <c r="G10" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Aca_Evaluación de etapa</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J10" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Aca_Evaluación de etapa_CCTA</v>
+      </c>
+      <c r="K10" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Aca_Evaluación de etapa_SCTA</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F11" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>TyE_Academia</v>
+      </c>
+      <c r="G11" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Aca_Feria del libro</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J11" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Aca_Feria del libro_CCTA</v>
+      </c>
+      <c r="K11" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Aca_Feria del libro_SCTA</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F12" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>TyE_Academia</v>
+      </c>
+      <c r="G12" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Aca_Fintech</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J12" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Aca_Fintech_CCTA</v>
+      </c>
+      <c r="K12" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Aca_Fintech_SCTA</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F13" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>TyE_Academia</v>
+      </c>
+      <c r="G13" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Aca_Foro agua</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J13" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Aca_Foro agua_CCTA</v>
+      </c>
+      <c r="K13" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Aca_Foro agua_SCTA</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F14" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>TyE_Academia</v>
+      </c>
+      <c r="G14" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Aca_Futuro de las ciudades</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J14" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Aca_Futuro de las ciudades_CCTA</v>
+      </c>
+      <c r="K14" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Aca_Futuro de las ciudades_SCTA</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F15" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>TyE_Academia</v>
+      </c>
+      <c r="G15" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Aca_Futuro de las ciudades - Simposio</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J15" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Aca_Futuro de las ciudades - Simposio_CCTA</v>
+      </c>
+      <c r="K15" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Aca_Futuro de las ciudades - Simposio_SCTA</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F16" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>TyE_Academia</v>
+      </c>
+      <c r="G16" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Aca_Global Shared Learning Room</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J16" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Aca_Global Shared Learning Room_CCTA</v>
+      </c>
+      <c r="K16" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Aca_Global Shared Learning Room_SCTA</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F17" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>TyE_Academia</v>
+      </c>
+      <c r="G17" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Aca_INCmty</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J17" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Aca_INCmty_CCTA</v>
+      </c>
+      <c r="K17" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Aca_INCmty_SCTA</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F18" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>TyE_Academia</v>
+      </c>
+      <c r="G18" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Aca_Innovación Educativa</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J18" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Aca_Innovación Educativa_CCTA</v>
+      </c>
+      <c r="K18" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Aca_Innovación Educativa_SCTA</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F19" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>TyE_Academia</v>
+      </c>
+      <c r="G19" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Aca_Inspira</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J19" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Aca_Inspira_CCTA</v>
+      </c>
+      <c r="K19" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Aca_Inspira_SCTA</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F20" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>TyE_Academia</v>
+      </c>
+      <c r="G20" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Aca_Integridad académica</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J20" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Aca_Integridad académica_CCTA</v>
+      </c>
+      <c r="K20" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Aca_Integridad académica_SCTA</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G21" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Aca_Investigación</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J21" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Aca_Investigación_CCTA</v>
+      </c>
+      <c r="K21" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Aca_Investigación_SCTA</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F22" s="35" t="str">
+        <f t="shared" ref="F22:F29" si="4">IF(D22="",C22&amp;"_"&amp;E22,IF(D22="Aca",C22&amp;"_"&amp;E22,C22&amp;"_"&amp;D22&amp;"_"&amp;E22))</f>
+        <v>TyE_Academia</v>
+      </c>
+      <c r="G22" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Aca_Jornada académica</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J22" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Aca_Jornada académica_CCTA</v>
+      </c>
+      <c r="K22" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Aca_Jornada académica_SCTA</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F23" s="35" t="str">
+        <f t="shared" si="4"/>
+        <v>TyE_Academia</v>
+      </c>
+      <c r="G23" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Aca_LiFE</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J23" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Aca_LiFE_CCTA</v>
+      </c>
+      <c r="K23" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Aca_LiFE_SCTA</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F24" s="35" t="str">
+        <f t="shared" si="4"/>
+        <v>TyE_Academia</v>
+      </c>
+      <c r="G24" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Aca_Mensaje bienvenida a profesores DG</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J24" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Aca_Mensaje bienvenida a profesores DG_CCTA</v>
+      </c>
+      <c r="K24" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Aca_Mensaje bienvenida a profesores DG_SCTA</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F25" s="35" t="str">
+        <f t="shared" si="4"/>
+        <v>TyE_Academia</v>
+      </c>
+      <c r="G25" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Aca_Mi Trayectoria Tec</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J25" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Aca_Mi Trayectoria Tec_CCTA</v>
+      </c>
+      <c r="K25" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Aca_Mi Trayectoria Tec_SCTA</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F26" s="35" t="str">
+        <f t="shared" si="4"/>
+        <v>TyE_Academia</v>
+      </c>
+      <c r="G26" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Aca_Novus</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J26" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Aca_Novus_CCTA</v>
+      </c>
+      <c r="K26" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Aca_Novus_SCTA</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F27" s="35" t="str">
+        <f t="shared" si="4"/>
+        <v>TyE_Academia</v>
+      </c>
+      <c r="G27" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Aca_Otros - Academia</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J27" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Aca_Otros - Academia_CCTA</v>
+      </c>
+      <c r="K27" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Aca_Otros - Academia_SCTA</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F28" s="35" t="str">
+        <f t="shared" si="4"/>
+        <v>TyE_Academia</v>
+      </c>
+      <c r="G28" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Aca_Patrimonio cultural</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J28" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Aca_Patrimonio cultural_CCTA</v>
+      </c>
+      <c r="K28" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Aca_Patrimonio cultural_SCTA</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F29" s="35" t="str">
+        <f t="shared" si="4"/>
+        <v>TyE_Academia</v>
+      </c>
+      <c r="G29" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Aca_Profesor Inspirador</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J29" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Aca_Profesor Inspirador_CCTA</v>
+      </c>
+      <c r="K29" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Aca_Profesor Inspirador_SCTA</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G30" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Aca_Programa becario</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J30" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Aca_Programa becario_CCTA</v>
+      </c>
+      <c r="K30" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Aca_Programa becario_SCTA</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F31" s="35" t="str">
+        <f t="shared" ref="F31:F67" si="5">IF(D31="",C31&amp;"_"&amp;E31,IF(D31="Aca",C31&amp;"_"&amp;E31,C31&amp;"_"&amp;D31&amp;"_"&amp;E31))</f>
+        <v>TyE_Academia</v>
+      </c>
+      <c r="G31" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Aca_Revista Stanford</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J31" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Aca_Revista Stanford_CCTA</v>
+      </c>
+      <c r="K31" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Aca_Revista Stanford_SCTA</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F32" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v>TyE_Academia</v>
+      </c>
+      <c r="G32" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Aca_RNP</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J32" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Aca_RNP_CCTA</v>
+      </c>
+      <c r="K32" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Aca_RNP_SCTA</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F33" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v>TyE_Academia</v>
+      </c>
+      <c r="G33" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Aca_Semana i</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J33" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Aca_Semana i_CCTA</v>
+      </c>
+      <c r="K33" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Aca_Semana i_SCTA</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F34" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v>TyE_Academia</v>
+      </c>
+      <c r="G34" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Aca_Sesión VIENA</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J34" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Aca_Sesión VIENA_CCTA</v>
+      </c>
+      <c r="K34" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Aca_Sesión VIENA_SCTA</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F35" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v>TyE_Academia</v>
+      </c>
+      <c r="G35" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Aca_Tec 21</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J35" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Aca_Tec 21_CCTA</v>
+      </c>
+      <c r="K35" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Aca_Tec 21_SCTA</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F36" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v>TyE_Academia</v>
+      </c>
+      <c r="G36" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Aca_TecSounds</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J36" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Aca_TecSounds_CCTA</v>
+      </c>
+      <c r="K36" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Aca_TecSounds_SCTA</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F37" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v>TyE_Academia</v>
+      </c>
+      <c r="G37" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Aca_ULead</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J37" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Aca_ULead_CCTA</v>
+      </c>
+      <c r="K37" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Aca_ULead_SCTA</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F38" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v>TyE_Academia</v>
+      </c>
+      <c r="G38" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Aca_Visor de calificaciones</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J38" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Aca_Visor de calificaciones_CCTA</v>
+      </c>
+      <c r="K38" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Aca_Visor de calificaciones_SCTA</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F39" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v>TyE_Academia</v>
+      </c>
+      <c r="G39" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Aca_Writing Lab</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J39" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Aca_Writing Lab_CCTA</v>
+      </c>
+      <c r="K39" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Aca_Writing Lab_SCTA</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="37" t="s">
+        <v>330</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="C40" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39" t="s">
+        <v>332</v>
+      </c>
+      <c r="F40" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>TyE_Boletín Líderes</v>
+      </c>
+      <c r="G40" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Boletín Líderes_LT</v>
+      </c>
+      <c r="H40" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="I40" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="J40" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Boletín Líderes_LT_CCTA</v>
+      </c>
+      <c r="K40" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Boletín Líderes_LT_SCTA</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="B41" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="C41" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39" t="s">
+        <v>334</v>
+      </c>
+      <c r="F41" s="40" t="str">
+        <f t="shared" si="5"/>
+        <v>TyE_Boletín TyE</v>
+      </c>
+      <c r="G41" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Boletín TyE_News TyE</v>
+      </c>
+      <c r="H41" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="I41" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="J41" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Boletín TyE_News TyE_CCTA</v>
+      </c>
+      <c r="K41" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Boletín TyE_News TyE_SCTA</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="B42" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F42" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v>TyE_Cambios org</v>
+      </c>
+      <c r="G42" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Cambios org_Cambios organizacionales</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J42" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Cambios org_Cambios organizacionales_CCTA</v>
+      </c>
+      <c r="K42" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Cambios org_Cambios organizacionales_SCTA</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F43" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v>TyE_Cambios org</v>
+      </c>
+      <c r="G43" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Cambios org_TecGlobal</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J43" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Cambios org_TecGlobal_CCTA</v>
+      </c>
+      <c r="K43" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Cambios org_TecGlobal_SCTA</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F44" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v>TyE_Collaboration_TecS</v>
+      </c>
+      <c r="G44" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Collaboration_TecS_GlobalMobility</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J44" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Collaboration_TecS_GlobalMobility_CCTA</v>
+      </c>
+      <c r="K44" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Collaboration_TecS_GlobalMobility_SCTA</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F45" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v>TyE_Collaboration_TecS</v>
+      </c>
+      <c r="G45" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Collaboration_TecS_Número único</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J45" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Collaboration_TecS_Número único_CCTA</v>
+      </c>
+      <c r="K45" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Collaboration_TecS_Número único_SCTA</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F46" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v>TyE_Collaboration_TecS</v>
+      </c>
+      <c r="G46" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Collaboration_TecS_TECBot</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J46" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Collaboration_TecS_TECBot_CCTA</v>
+      </c>
+      <c r="K46" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Collaboration_TecS_TECBot_SCTA</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B47" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F47" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v>TyE_Collaboration_TecS</v>
+      </c>
+      <c r="G47" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Collaboration_TecS_TECservices</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J47" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Collaboration_TecS_TECservices_CCTA</v>
+      </c>
+      <c r="K47" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Collaboration_TecS_TECservices_SCTA</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F48" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v>TyE_Enablers_HTI</v>
+      </c>
+      <c r="G48" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Enablers_HTI_Ciberseguridad</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J48" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Enablers_HTI_Ciberseguridad_CCTA</v>
+      </c>
+      <c r="K48" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Enablers_HTI_Ciberseguridad_SCTA</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F49" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v>TyE_Enablers_HTI</v>
+      </c>
+      <c r="G49" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Enablers_HTI_Concientización</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J49" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Enablers_HTI_Concientización_CCTA</v>
+      </c>
+      <c r="K49" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Enablers_HTI_Concientización_SCTA</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B50" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F50" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v>TyE_Enablers_HTI</v>
+      </c>
+      <c r="G50" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Enablers_HTI_Herramientas digitales</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J50" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Enablers_HTI_Herramientas digitales_CCTA</v>
+      </c>
+      <c r="K50" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Enablers_HTI_Herramientas digitales_SCTA</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F51" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v>TyE_Enablers_HTI</v>
+      </c>
+      <c r="G51" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Enablers_HTI_MiLlaveDigital</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J51" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Enablers_HTI_MiLlaveDigital_CCTA</v>
+      </c>
+      <c r="K51" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Enablers_HTI_MiLlaveDigital_SCTA</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F52" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v>TyE_Enablers_HTI</v>
+      </c>
+      <c r="G52" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Enablers_HTI_MiTEC</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J52" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Enablers_HTI_MiTEC_CCTA</v>
+      </c>
+      <c r="K52" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Enablers_HTI_MiTEC_SCTA</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B53" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F53" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v>TyE_Enablers_HTI</v>
+      </c>
+      <c r="G53" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Enablers_HTI_MiTEC - Queremos escucharte</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J53" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Enablers_HTI_MiTEC - Queremos escucharte_CCTA</v>
+      </c>
+      <c r="K53" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Enablers_HTI_MiTEC - Queremos escucharte_SCTA</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B54" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F54" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v>TyE_Enablers_HTI</v>
+      </c>
+      <c r="G54" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Enablers_HTI_Renovación de línea</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J54" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Enablers_HTI_Renovación de línea_CCTA</v>
+      </c>
+      <c r="K54" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Enablers_HTI_Renovación de línea_SCTA</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F55" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v>TyE_Enablers_HTI</v>
+      </c>
+      <c r="G55" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Enablers_HTI_SEPMobile</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J55" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Enablers_HTI_SEPMobile_CCTA</v>
+      </c>
+      <c r="K55" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Enablers_HTI_SEPMobile_SCTA</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B56" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F56" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v>TyE_Enablers_HTI</v>
+      </c>
+      <c r="G56" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Enablers_HTI_Techvolution</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J56" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Enablers_HTI_Techvolution_CCTA</v>
+      </c>
+      <c r="K56" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Enablers_HTI_Techvolution_SCTA</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B57" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F57" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v>TyE_Enablers_HTI</v>
+      </c>
+      <c r="G57" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Enablers_HTI_Telefonía</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J57" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Enablers_HTI_Telefonía_CCTA</v>
+      </c>
+      <c r="K57" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Enablers_HTI_Telefonía_SCTA</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="B58" s="43" t="s">
+        <v>448</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F58" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v>TyE_Eventos Institucionales</v>
+      </c>
+      <c r="G58" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Eventos Institucionales_Día de la familia</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J58" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Eventos Institucionales_Día de la familia_CCTA</v>
+      </c>
+      <c r="K58" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Eventos Institucionales_Día de la familia_SCTA</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="B59" s="43" t="s">
+        <v>448</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D59" s="44"/>
+      <c r="E59" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F59" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v>TyE_Eventos Institucionales</v>
+      </c>
+      <c r="G59" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Eventos Institucionales_Día de las Madres</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J59" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Eventos Institucionales_Día de las Madres_CCTA</v>
+      </c>
+      <c r="K59" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Eventos Institucionales_Día de las Madres_SCTA</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="B60" s="43" t="s">
+        <v>448</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F60" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v>TyE_Eventos Institucionales</v>
+      </c>
+      <c r="G60" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Eventos Institucionales_Día del maestro</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J60" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Eventos Institucionales_Día del maestro_CCTA</v>
+      </c>
+      <c r="K60" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Eventos Institucionales_Día del maestro_SCTA</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="42" t="s">
+        <v>322</v>
+      </c>
+      <c r="B61" s="43" t="s">
+        <v>448</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F61" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v>TyE_Eventos Institucionales</v>
+      </c>
+      <c r="G61" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Eventos Institucionales_Día del Padre</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J61" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Eventos Institucionales_Día del Padre_CCTA</v>
+      </c>
+      <c r="K61" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Eventos Institucionales_Día del Padre_SCTA</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="B62" s="43" t="s">
+        <v>448</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F62" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v>TyE_Eventos Institucionales</v>
+      </c>
+      <c r="G62" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Eventos Institucionales_Fiestas Tec</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J62" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Eventos Institucionales_Fiestas Tec_CCTA</v>
+      </c>
+      <c r="K62" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Eventos Institucionales_Fiestas Tec_SCTA</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B63" s="43" t="s">
+        <v>448</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F63" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v>TyE_Eventos Institucionales</v>
+      </c>
+      <c r="G63" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Eventos Institucionales_Lealtad</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J63" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Eventos Institucionales_Lealtad_CCTA</v>
+      </c>
+      <c r="K63" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Eventos Institucionales_Lealtad_SCTA</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B64" s="43" t="s">
+        <v>448</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F64" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v>TyE_Eventos Institucionales</v>
+      </c>
+      <c r="G64" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Eventos Institucionales_Mundial de Qatar</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J64" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Eventos Institucionales_Mundial de Qatar_CCTA</v>
+      </c>
+      <c r="K64" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Eventos Institucionales_Mundial de Qatar_SCTA</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="42" t="s">
+        <v>323</v>
+      </c>
+      <c r="B65" s="43" t="s">
+        <v>448</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F65" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v>TyE_Eventos Institucionales</v>
+      </c>
+      <c r="G65" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>TyE_Eventos Institucionales_Olimpiadas Tokio 2021</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J65" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>TyE_Eventos Institucionales_Olimpiadas Tokio 2021_CCTA</v>
+      </c>
+      <c r="K65" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>TyE_Eventos Institucionales_Olimpiadas Tokio 2021_SCTA</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B66" s="43" t="s">
+        <v>326</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F66" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v>TyE_EVP</v>
+      </c>
+      <c r="G66" s="33" t="str">
+        <f t="shared" ref="G66:G129" si="6">IF(F66="TyE_Academia",C66&amp;"_"&amp;D66&amp;"_"&amp;A66,F66&amp;"_"&amp;A66)</f>
+        <v>TyE_EVP_Asig Temporales</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J66" s="3" t="str">
+        <f t="shared" ref="J66:J129" si="7">G66&amp;"_"&amp;H66</f>
+        <v>TyE_EVP_Asig Temporales_CCTA</v>
+      </c>
+      <c r="K66" s="3" t="str">
+        <f t="shared" ref="K66:K129" si="8">G66&amp;"_"&amp;I66</f>
+        <v>TyE_EVP_Asig Temporales_SCTA</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B67" s="43" t="s">
+        <v>326</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F67" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v>TyE_EVP</v>
+      </c>
+      <c r="G67" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_EVP_Conferencias</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J67" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_EVP_Conferencias_CCTA</v>
+      </c>
+      <c r="K67" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_EVP_Conferencias_SCTA</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B68" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G68" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_EVP_Encuestas EFY</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J68" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_EVP_Encuestas EFY_CCTA</v>
+      </c>
+      <c r="K68" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_EVP_Encuestas EFY_SCTA</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B69" s="43" t="s">
+        <v>326</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F69" s="35" t="str">
+        <f t="shared" ref="F69:F119" si="9">IF(D69="",C69&amp;"_"&amp;E69,IF(D69="Aca",C69&amp;"_"&amp;E69,C69&amp;"_"&amp;D69&amp;"_"&amp;E69))</f>
+        <v>TyE_EVP</v>
+      </c>
+      <c r="G69" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_EVP_Marca empleadora</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J69" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_EVP_Marca empleadora_CCTA</v>
+      </c>
+      <c r="K69" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_EVP_Marca empleadora_SCTA</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B70" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F70" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_EVP</v>
+      </c>
+      <c r="G70" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_EVP_Princeton</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J70" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_EVP_Princeton_CCTA</v>
+      </c>
+      <c r="K70" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_EVP_Princeton_SCTA</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B71" s="43" t="s">
+        <v>326</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F71" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_EVP</v>
+      </c>
+      <c r="G71" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_EVP_Refiriendo Talento</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J71" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_EVP_Refiriendo Talento_CCTA</v>
+      </c>
+      <c r="K71" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_EVP_Refiriendo Talento_SCTA</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B72" s="43" t="s">
+        <v>326</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F72" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_EVP</v>
+      </c>
+      <c r="G72" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_EVP_U21 Award 2022</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J72" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_EVP_U21 Award 2022_CCTA</v>
+      </c>
+      <c r="K72" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_EVP_U21 Award 2022_SCTA</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F73" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_Flexibility_Ben</v>
+      </c>
+      <c r="G73" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_Flexibility_Ben_Aseguratec</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J73" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_Flexibility_Ben_Aseguratec_CCTA</v>
+      </c>
+      <c r="K73" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_Flexibility_Ben_Aseguratec_SCTA</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B74" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F74" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_Flexibility_Ben</v>
+      </c>
+      <c r="G74" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_Flexibility_Ben_BecaPrepanet</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J74" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_Flexibility_Ben_BecaPrepanet_CCTA</v>
+      </c>
+      <c r="K74" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_Flexibility_Ben_BecaPrepanet_SCTA</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B75" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F75" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_Flexibility_Ben</v>
+      </c>
+      <c r="G75" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_Flexibility_Ben_Beneflex por desempeño</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J75" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_Flexibility_Ben_Beneflex por desempeño_CCTA</v>
+      </c>
+      <c r="K75" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_Flexibility_Ben_Beneflex por desempeño_SCTA</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B76" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F76" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_Flexibility_Ben</v>
+      </c>
+      <c r="G76" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_Flexibility_Ben_Empoderamiento</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J76" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_Flexibility_Ben_Empoderamiento_CCTA</v>
+      </c>
+      <c r="K76" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_Flexibility_Ben_Empoderamiento_SCTA</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="B77" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F77" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_Flexibility_Ben</v>
+      </c>
+      <c r="G77" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_Flexibility_Ben_Mi caja de ahorro</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J77" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_Flexibility_Ben_Mi caja de ahorro_CCTA</v>
+      </c>
+      <c r="K77" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_Flexibility_Ben_Mi caja de ahorro_SCTA</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B78" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F78" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_Flexibility_Ben</v>
+      </c>
+      <c r="G78" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_Flexibility_Ben_Mis convenios</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J78" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_Flexibility_Ben_Mis convenios_CCTA</v>
+      </c>
+      <c r="K78" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_Flexibility_Ben_Mis convenios_SCTA</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B79" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F79" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_Flexibility_Ben</v>
+      </c>
+      <c r="G79" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_Flexibility_Ben_Prestamo Tec</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J79" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_Flexibility_Ben_Prestamo Tec_CCTA</v>
+      </c>
+      <c r="K79" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_Flexibility_Ben_Prestamo Tec_SCTA</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B80" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F80" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_Flexibility_Ben</v>
+      </c>
+      <c r="G80" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_Flexibility_Ben_Seguros voluntarios</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J80" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_Flexibility_Ben_Seguros voluntarios_CCTA</v>
+      </c>
+      <c r="K80" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_Flexibility_Ben_Seguros voluntarios_SCTA</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="B81" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F81" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_Flexibility_Ben</v>
+      </c>
+      <c r="G81" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_Flexibility_Ben_Vehiculos</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J81" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_Flexibility_Ben_Vehiculos_CCTA</v>
+      </c>
+      <c r="K81" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_Flexibility_Ben_Vehiculos_SCTA</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B82" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F82" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_Flexibility_Comp</v>
+      </c>
+      <c r="G82" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_Flexibility_Comp_Apoyo Home Office 2021</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J82" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_Flexibility_Comp_Apoyo Home Office 2021_CCTA</v>
+      </c>
+      <c r="K82" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_Flexibility_Comp_Apoyo Home Office 2021_SCTA</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B83" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F83" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_Flexibility_Comp</v>
+      </c>
+      <c r="G83" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_Flexibility_Comp_Buenas noticias</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J83" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_Flexibility_Comp_Buenas noticias_CCTA</v>
+      </c>
+      <c r="K83" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_Flexibility_Comp_Buenas noticias_SCTA</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B84" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F84" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_Flexibility_Comp</v>
+      </c>
+      <c r="G84" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_Flexibility_Comp_CFDI</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J84" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_Flexibility_Comp_CFDI_CCTA</v>
+      </c>
+      <c r="K84" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_Flexibility_Comp_CFDI_SCTA</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B85" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F85" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_Flexibility_Comp</v>
+      </c>
+      <c r="G85" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_Flexibility_Comp_Declaracion Anual</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J85" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_Flexibility_Comp_Declaracion Anual_CCTA</v>
+      </c>
+      <c r="K85" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_Flexibility_Comp_Declaracion Anual_SCTA</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B86" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F86" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_Flexibility_Comp</v>
+      </c>
+      <c r="G86" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_Flexibility_Comp_Incremento anual</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J86" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_Flexibility_Comp_Incremento anual_CCTA</v>
+      </c>
+      <c r="K86" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_Flexibility_Comp_Incremento anual_SCTA</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B87" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C87" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="D87" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="E87" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="F87" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_Flexibility_Comp</v>
+      </c>
+      <c r="G87" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_Flexibility_Comp_Infonavit</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J87" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_Flexibility_Comp_Infonavit_CCTA</v>
+      </c>
+      <c r="K87" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_Flexibility_Comp_Infonavit_SCTA</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="B88" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F88" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_Flexibility_Comp</v>
+      </c>
+      <c r="G88" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_Flexibility_Comp_Mi Apoyo comida</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J88" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_Flexibility_Comp_Mi Apoyo comida_CCTA</v>
+      </c>
+      <c r="K88" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_Flexibility_Comp_Mi Apoyo comida_SCTA</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B89" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C89" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="D89" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="E89" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="F89" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_Flexibility_Comp</v>
+      </c>
+      <c r="G89" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_Flexibility_Comp_Mi plan de retiro</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J89" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_Flexibility_Comp_Mi plan de retiro_CCTA</v>
+      </c>
+      <c r="K89" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_Flexibility_Comp_Mi plan de retiro_SCTA</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B90" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F90" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_Flexibility_Comp</v>
+      </c>
+      <c r="G90" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_Flexibility_Comp_SURA</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J90" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_Flexibility_Comp_SURA_CCTA</v>
+      </c>
+      <c r="K90" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_Flexibility_Comp_SURA_SCTA</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B91" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F91" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_Flexibility_Comp</v>
+      </c>
+      <c r="G91" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_Flexibility_Comp_Vacaciones</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J91" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_Flexibility_Comp_Vacaciones_CCTA</v>
+      </c>
+      <c r="K91" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_Flexibility_Comp_Vacaciones_SCTA</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B92" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F92" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_Flexibility_Comp</v>
+      </c>
+      <c r="G92" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_Flexibility_Comp_Vales</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J92" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_Flexibility_Comp_Vales_CCTA</v>
+      </c>
+      <c r="K92" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_Flexibility_Comp_Vales_SCTA</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="B93" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F93" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_Flexibility_COVID</v>
+      </c>
+      <c r="G93" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_Flexibility_COVID_Acciones 4ta ola</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J93" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_Flexibility_COVID_Acciones 4ta ola_CCTA</v>
+      </c>
+      <c r="K93" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_Flexibility_COVID_Acciones 4ta ola_SCTA</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="B94" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F94" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_Flexibility_COVID</v>
+      </c>
+      <c r="G94" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_Flexibility_COVID_Coronavirus</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J94" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_Flexibility_COVID_Coronavirus_CCTA</v>
+      </c>
+      <c r="K94" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_Flexibility_COVID_Coronavirus_SCTA</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="B95" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F95" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_Flexibility_Trabajo Flexible</v>
+      </c>
+      <c r="G95" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_Flexibility_Trabajo Flexible_Espacios Flexibles</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J95" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_Flexibility_Trabajo Flexible_Espacios Flexibles_CCTA</v>
+      </c>
+      <c r="K95" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_Flexibility_Trabajo Flexible_Espacios Flexibles_SCTA</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B96" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C96" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="D96" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="E96" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="F96" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_Flexibility_Trabajo Flexible</v>
+      </c>
+      <c r="G96" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_Flexibility_Trabajo Flexible_Mis viajes</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J96" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_Flexibility_Trabajo Flexible_Mis viajes_CCTA</v>
+      </c>
+      <c r="K96" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_Flexibility_Trabajo Flexible_Mis viajes_SCTA</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B97" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F97" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_Otros</v>
+      </c>
+      <c r="G97" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_Otros_Protocolo de Acceso</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J97" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_Otros_Protocolo de Acceso_CCTA</v>
+      </c>
+      <c r="K97" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_Otros_Protocolo de Acceso_SCTA</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="B98" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F98" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_Otros</v>
+      </c>
+      <c r="G98" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_Otros_SACSCOC</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J98" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_Otros_SACSCOC_CCTA</v>
+      </c>
+      <c r="K98" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_Otros_SACSCOC_SCTA</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B99" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F99" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_Otros</v>
+      </c>
+      <c r="G99" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_Otros_Tec On Demand</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J99" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_Otros_Tec On Demand_CCTA</v>
+      </c>
+      <c r="K99" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_Otros_Tec On Demand_SCTA</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B100" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F100" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_PowerUp_Bienestar</v>
+      </c>
+      <c r="G100" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_PowerUp_Bienestar_Cáncer de mama</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J100" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_PowerUp_Bienestar_Cáncer de mama_CCTA</v>
+      </c>
+      <c r="K100" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_PowerUp_Bienestar_Cáncer de mama_SCTA</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B101" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F101" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_PowerUp_Bienestar</v>
+      </c>
+      <c r="G101" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_PowerUp_Bienestar_Cuida tu mente</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J101" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_PowerUp_Bienestar_Cuida tu mente_CCTA</v>
+      </c>
+      <c r="K101" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_PowerUp_Bienestar_Cuida tu mente_SCTA</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B102" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F102" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_PowerUp_Bienestar</v>
+      </c>
+      <c r="G102" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_PowerUp_Bienestar_Diabetes</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J102" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_PowerUp_Bienestar_Diabetes_CCTA</v>
+      </c>
+      <c r="K102" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_PowerUp_Bienestar_Diabetes_SCTA</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="B103" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F103" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_PowerUp_Bienestar</v>
+      </c>
+      <c r="G103" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_PowerUp_Bienestar_Maternidad</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J103" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_PowerUp_Bienestar_Maternidad_CCTA</v>
+      </c>
+      <c r="K103" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_PowerUp_Bienestar_Maternidad_SCTA</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B104" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F104" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_PowerUp_Bienestar</v>
+      </c>
+      <c r="G104" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_PowerUp_Bienestar_Semana del bienestar financiero</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J104" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_PowerUp_Bienestar_Semana del bienestar financiero_CCTA</v>
+      </c>
+      <c r="K104" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_PowerUp_Bienestar_Semana del bienestar financiero_SCTA</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="B105" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F105" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_PowerUp_Bienestar</v>
+      </c>
+      <c r="G105" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_PowerUp_Bienestar_Semana Tqueremos</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J105" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_PowerUp_Bienestar_Semana Tqueremos_CCTA</v>
+      </c>
+      <c r="K105" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_PowerUp_Bienestar_Semana Tqueremos_SCTA</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B106" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F106" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_PowerUp_Bienestar</v>
+      </c>
+      <c r="G106" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_PowerUp_Bienestar_Testamento</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J106" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_PowerUp_Bienestar_Testamento_CCTA</v>
+      </c>
+      <c r="K106" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_PowerUp_Bienestar_Testamento_SCTA</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B107" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F107" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_PowerUp_Bienestar</v>
+      </c>
+      <c r="G107" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_PowerUp_Bienestar_Unidos contigo</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J107" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_PowerUp_Bienestar_Unidos contigo_CCTA</v>
+      </c>
+      <c r="K107" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_PowerUp_Bienestar_Unidos contigo_SCTA</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B108" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F108" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_PowerUp_Bienestar</v>
+      </c>
+      <c r="G108" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_PowerUp_Bienestar_Wellbeing</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J108" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_PowerUp_Bienestar_Wellbeing_CCTA</v>
+      </c>
+      <c r="K108" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_PowerUp_Bienestar_Wellbeing_SCTA</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B109" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F109" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_PowerUp_Desarrollo</v>
+      </c>
+      <c r="G109" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_PowerUp_Desarrollo_English@Tec</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J109" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_PowerUp_Desarrollo_English@Tec_CCTA</v>
+      </c>
+      <c r="K109" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_PowerUp_Desarrollo_English@Tec_SCTA</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B110" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F110" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_PowerUp_Desarrollo</v>
+      </c>
+      <c r="G110" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_PowerUp_Desarrollo_Learning Hub</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J110" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_PowerUp_Desarrollo_Learning Hub_CCTA</v>
+      </c>
+      <c r="K110" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_PowerUp_Desarrollo_Learning Hub_SCTA</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B111" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F111" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_PowerUp_Desarrollo</v>
+      </c>
+      <c r="G111" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_PowerUp_Desarrollo_On Campus Interns</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J111" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_PowerUp_Desarrollo_On Campus Interns_CCTA</v>
+      </c>
+      <c r="K111" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_PowerUp_Desarrollo_On Campus Interns_SCTA</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B112" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F112" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_PowerUp_Desarrollo</v>
+      </c>
+      <c r="G112" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_PowerUp_Desarrollo_TechSavvy</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J112" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_PowerUp_Desarrollo_TechSavvy_CCTA</v>
+      </c>
+      <c r="K112" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_PowerUp_Desarrollo_TechSavvy_SCTA</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B113" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F113" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_PowerUp_Talento</v>
+      </c>
+      <c r="G113" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_PowerUp_Talento_Mi Plan de Desarrollo</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J113" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_PowerUp_Talento_Mi Plan de Desarrollo_CCTA</v>
+      </c>
+      <c r="K113" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_PowerUp_Talento_Mi Plan de Desarrollo_SCTA</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B114" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F114" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_PowerUp_Talento</v>
+      </c>
+      <c r="G114" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_PowerUp_Talento_Mis compromisos</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J114" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_PowerUp_Talento_Mis compromisos_CCTA</v>
+      </c>
+      <c r="K114" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_PowerUp_Talento_Mis compromisos_SCTA</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B115" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F115" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_PowerUp_Talento</v>
+      </c>
+      <c r="G115" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_PowerUp_Talento_Momentos para conversar</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J115" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_PowerUp_Talento_Momentos para conversar_CCTA</v>
+      </c>
+      <c r="K115" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_PowerUp_Talento_Momentos para conversar_SCTA</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B116" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F116" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_PowerUp_Talento</v>
+      </c>
+      <c r="G116" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_PowerUp_Talento_Plan de Mejora</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J116" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_PowerUp_Talento_Plan de Mejora_CCTA</v>
+      </c>
+      <c r="K116" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_PowerUp_Talento_Plan de Mejora_SCTA</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B117" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F117" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_PowerUp_Talento</v>
+      </c>
+      <c r="G117" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_PowerUp_Talento_Reflexión Final</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J117" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_PowerUp_Talento_Reflexión Final_CCTA</v>
+      </c>
+      <c r="K117" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_PowerUp_Talento_Reflexión Final_SCTA</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B118" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F118" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_PowerUp_Talento</v>
+      </c>
+      <c r="G118" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_PowerUp_Talento_Retroalimentación Continua</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J118" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_PowerUp_Talento_Retroalimentación Continua_CCTA</v>
+      </c>
+      <c r="K118" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_PowerUp_Talento_Retroalimentación Continua_SCTA</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B119" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F119" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>TyE_Presidencia</v>
+      </c>
+      <c r="G119" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_Presidencia_Charlas de Pasillo con David Garza</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J119" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_Presidencia_Charlas de Pasillo con David Garza_CCTA</v>
+      </c>
+      <c r="K119" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_Presidencia_Charlas de Pasillo con David Garza_SCTA</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B120" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="G120" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_Presidencia_DAVOS</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J120" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_Presidencia_DAVOS_CCTA</v>
+      </c>
+      <c r="K120" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_Presidencia_DAVOS_SCTA</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="B121" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F121" s="35" t="str">
+        <f>IF(D121="",C121&amp;"_"&amp;E121,IF(D121="Aca",C121&amp;"_"&amp;E121,C121&amp;"_"&amp;D121&amp;"_"&amp;E121))</f>
+        <v>TyE_Presidencia</v>
+      </c>
+      <c r="G121" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_Presidencia_Expedition</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J121" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_Presidencia_Expedition_CCTA</v>
+      </c>
+      <c r="K121" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_Presidencia_Expedition_SCTA</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B122" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F122" s="35" t="str">
+        <f>IF(D122="",C122&amp;"_"&amp;E122,IF(D122="Aca",C122&amp;"_"&amp;E122,C122&amp;"_"&amp;D122&amp;"_"&amp;E122))</f>
+        <v>TyE_Presidencia</v>
+      </c>
+      <c r="G122" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_Presidencia_Graduacion TEC</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J122" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_Presidencia_Graduacion TEC_CCTA</v>
+      </c>
+      <c r="K122" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_Presidencia_Graduacion TEC_SCTA</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="B123" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F123" s="35" t="str">
+        <f>IF(D123="",C123&amp;"_"&amp;E123,IF(D123="Aca",C123&amp;"_"&amp;E123,C123&amp;"_"&amp;D123&amp;"_"&amp;E123))</f>
+        <v>TyE_Presidencia</v>
+      </c>
+      <c r="G123" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_Presidencia_Informe Anual</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J123" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_Presidencia_Informe Anual_CCTA</v>
+      </c>
+      <c r="K123" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_Presidencia_Informe Anual_SCTA</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B124" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="G124" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_Presidencia_Inicio de ciclo</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J124" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_Presidencia_Inicio de ciclo_CCTA</v>
+      </c>
+      <c r="K124" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_Presidencia_Inicio de ciclo_SCTA</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="B125" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F125" s="35" t="str">
+        <f t="shared" ref="F125:F165" si="10">IF(D125="",C125&amp;"_"&amp;E125,IF(D125="Aca",C125&amp;"_"&amp;E125,C125&amp;"_"&amp;D125&amp;"_"&amp;E125))</f>
+        <v>TyE_Presidencia</v>
+      </c>
+      <c r="G125" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_Presidencia_QS</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J125" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_Presidencia_QS_CCTA</v>
+      </c>
+      <c r="K125" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_Presidencia_QS_SCTA</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B126" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F126" s="35" t="str">
+        <f t="shared" si="10"/>
+        <v>TyE_SorteosTec</v>
+      </c>
+      <c r="G126" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_SorteosTec_Aniversario ST</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J126" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_SorteosTec_Aniversario ST_CCTA</v>
+      </c>
+      <c r="K126" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_SorteosTec_Aniversario ST_SCTA</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B127" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F127" s="35" t="str">
+        <f t="shared" si="10"/>
+        <v>TyE_SorteosTec</v>
+      </c>
+      <c r="G127" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_SorteosTec_Casa sorteos</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J127" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_SorteosTec_Casa sorteos_CCTA</v>
+      </c>
+      <c r="K127" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_SorteosTec_Casa sorteos_SCTA</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="B128" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F128" s="35" t="str">
+        <f t="shared" si="10"/>
+        <v>TyE_SorteosTec</v>
+      </c>
+      <c r="G128" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_SorteosTec_Promoción ST</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J128" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_SorteosTec_Promoción ST_CCTA</v>
+      </c>
+      <c r="K128" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_SorteosTec_Promoción ST_SCTA</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B129" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F129" s="35" t="str">
+        <f t="shared" si="10"/>
+        <v>TyE_Tecmi</v>
+      </c>
+      <c r="G129" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>TyE_Tecmi_Organizaciones Positivas</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J129" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>TyE_Tecmi_Organizaciones Positivas_CCTA</v>
+      </c>
+      <c r="K129" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>TyE_Tecmi_Organizaciones Positivas_SCTA</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B130" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F130" s="35" t="str">
+        <f t="shared" si="10"/>
+        <v>TyE_Tecmi</v>
+      </c>
+      <c r="G130" s="33" t="str">
+        <f t="shared" ref="G130:G165" si="11">IF(F130="TyE_Academia",C130&amp;"_"&amp;D130&amp;"_"&amp;A130,F130&amp;"_"&amp;A130)</f>
+        <v>TyE_Tecmi_Semana de la Felicidad</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J130" s="3" t="str">
+        <f t="shared" ref="J130:J165" si="12">G130&amp;"_"&amp;H130</f>
+        <v>TyE_Tecmi_Semana de la Felicidad_CCTA</v>
+      </c>
+      <c r="K130" s="3" t="str">
+        <f t="shared" ref="K130:K165" si="13">G130&amp;"_"&amp;I130</f>
+        <v>TyE_Tecmi_Semana de la Felicidad_SCTA</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B131" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F131" s="35" t="str">
+        <f t="shared" si="10"/>
+        <v>TyE_Tecmi</v>
+      </c>
+      <c r="G131" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>TyE_Tecmi_Sorteo con Propósito</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J131" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>TyE_Tecmi_Sorteo con Propósito_CCTA</v>
+      </c>
+      <c r="K131" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TyE_Tecmi_Sorteo con Propósito_SCTA</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="B132" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F132" s="35" t="str">
+        <f t="shared" si="10"/>
+        <v>TyE_Tecmi</v>
+      </c>
+      <c r="G132" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>TyE_Tecmi_Sorteo Líder a Líder</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J132" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>TyE_Tecmi_Sorteo Líder a Líder_CCTA</v>
+      </c>
+      <c r="K132" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TyE_Tecmi_Sorteo Líder a Líder_SCTA</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B133" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F133" s="35" t="str">
+        <f t="shared" si="10"/>
+        <v>TyE_Tecmi</v>
+      </c>
+      <c r="G133" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>TyE_Tecmi_Wellbeing 360</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J133" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>TyE_Tecmi_Wellbeing 360_CCTA</v>
+      </c>
+      <c r="K133" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TyE_Tecmi_Wellbeing 360_SCTA</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B134" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F134" s="35" t="str">
+        <f t="shared" si="10"/>
+        <v>TyE_TecSalud</v>
+      </c>
+      <c r="G134" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>TyE_TecSalud_COVID al día</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J134" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>TyE_TecSalud_COVID al día_CCTA</v>
+      </c>
+      <c r="K134" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TyE_TecSalud_COVID al día_SCTA</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B135" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F135" s="35" t="str">
+        <f t="shared" si="10"/>
+        <v>TyE_Top200</v>
+      </c>
+      <c r="G135" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>TyE_Top200_Conectar</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J135" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>TyE_Top200_Conectar_CCTA</v>
+      </c>
+      <c r="K135" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TyE_Top200_Conectar_SCTA</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B136" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F136" s="35" t="str">
+        <f t="shared" si="10"/>
+        <v>TyE_TyEAvisos</v>
+      </c>
+      <c r="G136" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>TyE_TyEAvisos_Mi ECO</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J136" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>TyE_TyEAvisos_Mi ECO_CCTA</v>
+      </c>
+      <c r="K136" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TyE_TyEAvisos_Mi ECO_SCTA</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="B137" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F137" s="35" t="str">
+        <f t="shared" si="10"/>
+        <v>TyE_TyEAvisos</v>
+      </c>
+      <c r="G137" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>TyE_TyEAvisos_Sesión de talento</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J137" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>TyE_TyEAvisos_Sesión de talento_CCTA</v>
+      </c>
+      <c r="K137" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TyE_TyEAvisos_Sesión de talento_SCTA</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="B138" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F138" s="35" t="str">
+        <f t="shared" si="10"/>
+        <v>TyE_VIISS</v>
+      </c>
+      <c r="G138" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>TyE_VIISS_CNDH</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J138" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>TyE_VIISS_CNDH_CCTA</v>
+      </c>
+      <c r="K138" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TyE_VIISS_CNDH_SCTA</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B139" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F139" s="35" t="str">
+        <f t="shared" si="10"/>
+        <v>TyE_VIISS</v>
+      </c>
+      <c r="G139" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>TyE_VIISS_Conferencias</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J139" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>TyE_VIISS_Conferencias_CCTA</v>
+      </c>
+      <c r="K139" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TyE_VIISS_Conferencias_SCTA</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B140" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D140" s="44"/>
+      <c r="E140" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F140" s="35" t="str">
+        <f t="shared" si="10"/>
+        <v>TyE_VIISS</v>
+      </c>
+      <c r="G140" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>TyE_VIISS_Día Internacional de la Mujer</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J140" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>TyE_VIISS_Día Internacional de la Mujer_CCTA</v>
+      </c>
+      <c r="K140" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TyE_VIISS_Día Internacional de la Mujer_SCTA</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B141" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D141" s="44"/>
+      <c r="E141" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F141" s="35" t="str">
+        <f t="shared" si="10"/>
+        <v>TyE_VIISS</v>
+      </c>
+      <c r="G141" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>TyE_VIISS_ETHOS</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J141" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>TyE_VIISS_ETHOS_CCTA</v>
+      </c>
+      <c r="K141" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TyE_VIISS_ETHOS_SCTA</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B142" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D142" s="44"/>
+      <c r="E142" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F142" s="35" t="str">
+        <f t="shared" si="10"/>
+        <v>TyE_VIISS</v>
+      </c>
+      <c r="G142" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>TyE_VIISS_Foro Dialogos Abiertos</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I142" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J142" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>TyE_VIISS_Foro Dialogos Abiertos_CCTA</v>
+      </c>
+      <c r="K142" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TyE_VIISS_Foro Dialogos Abiertos_SCTA</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B143" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D143" s="44"/>
+      <c r="E143" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F143" s="35" t="str">
+        <f t="shared" si="10"/>
+        <v>TyE_VIISS</v>
+      </c>
+      <c r="G143" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>TyE_VIISS_Impulsa</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J143" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>TyE_VIISS_Impulsa_CCTA</v>
+      </c>
+      <c r="K143" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TyE_VIISS_Impulsa_SCTA</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B144" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D144" s="44"/>
+      <c r="E144" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F144" s="35" t="str">
+        <f t="shared" si="10"/>
+        <v>TyE_VIISS</v>
+      </c>
+      <c r="G144" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>TyE_VIISS_Inclusión e Integridad</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J144" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>TyE_VIISS_Inclusión e Integridad_CCTA</v>
+      </c>
+      <c r="K144" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TyE_VIISS_Inclusión e Integridad_SCTA</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B145" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D145" s="7"/>
+      <c r="E145" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F145" s="35" t="str">
+        <f t="shared" si="10"/>
+        <v>TyE_VIISS</v>
+      </c>
+      <c r="G145" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>TyE_VIISS_Iniciativas Sociales</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J145" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>TyE_VIISS_Iniciativas Sociales_CCTA</v>
+      </c>
+      <c r="K145" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TyE_VIISS_Iniciativas Sociales_SCTA</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B146" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D146" s="44"/>
+      <c r="E146" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F146" s="35" t="str">
+        <f t="shared" si="10"/>
+        <v>TyE_VIISS</v>
+      </c>
+      <c r="G146" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>TyE_VIISS_Líderes del Mañana</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J146" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>TyE_VIISS_Líderes del Mañana_CCTA</v>
+      </c>
+      <c r="K146" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TyE_VIISS_Líderes del Mañana_SCTA</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="B147" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D147" s="7"/>
+      <c r="E147" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F147" s="35" t="str">
+        <f t="shared" si="10"/>
+        <v>TyE_VIISS</v>
+      </c>
+      <c r="G147" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>TyE_VIISS_Mujer Tec</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J147" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>TyE_VIISS_Mujer Tec_CCTA</v>
+      </c>
+      <c r="K147" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TyE_VIISS_Mujer Tec_SCTA</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B148" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D148" s="44"/>
+      <c r="E148" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F148" s="35" t="str">
+        <f t="shared" si="10"/>
+        <v>TyE_VIISS</v>
+      </c>
+      <c r="G148" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>TyE_VIISS_Premio Eugenio Garza Sada</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J148" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>TyE_VIISS_Premio Eugenio Garza Sada_CCTA</v>
+      </c>
+      <c r="K148" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TyE_VIISS_Premio Eugenio Garza Sada_SCTA</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B149" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D149" s="44"/>
+      <c r="E149" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F149" s="35" t="str">
+        <f t="shared" si="10"/>
+        <v>TyE_VIISS</v>
+      </c>
+      <c r="G149" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>TyE_VIISS_Premio Mujer Tec</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J149" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>TyE_VIISS_Premio Mujer Tec_CCTA</v>
+      </c>
+      <c r="K149" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TyE_VIISS_Premio Mujer Tec_SCTA</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B150" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D150" s="7"/>
+      <c r="E150" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F150" s="35" t="str">
+        <f t="shared" si="10"/>
+        <v>TyE_VIISS</v>
+      </c>
+      <c r="G150" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>TyE_VIISS_Ruta Azul</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J150" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>TyE_VIISS_Ruta Azul_CCTA</v>
+      </c>
+      <c r="K150" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TyE_VIISS_Ruta Azul_SCTA</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B151" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D151" s="7"/>
+      <c r="E151" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F151" s="35" t="str">
+        <f t="shared" si="10"/>
+        <v>TyE_VIISS</v>
+      </c>
+      <c r="G151" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>TyE_VIISS_Sostenibilidad</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J151" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>TyE_VIISS_Sostenibilidad_CCTA</v>
+      </c>
+      <c r="K151" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TyE_VIISS_Sostenibilidad_SCTA</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B152" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D152" s="7"/>
+      <c r="E152" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F152" s="35" t="str">
+        <f t="shared" si="10"/>
+        <v>TyE_VIISS</v>
+      </c>
+      <c r="G152" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>TyE_VIISS_TecSeguro</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J152" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>TyE_VIISS_TecSeguro_CCTA</v>
+      </c>
+      <c r="K152" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TyE_VIISS_TecSeguro_SCTA</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B153" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D153" s="44"/>
+      <c r="E153" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F153" s="35" t="str">
+        <f t="shared" si="10"/>
+        <v>TyE_VIISS</v>
+      </c>
+      <c r="G153" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>TyE_VIISS_Valores y Cultura</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J153" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>TyE_VIISS_Valores y Cultura_CCTA</v>
+      </c>
+      <c r="K153" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TyE_VIISS_Valores y Cultura_SCTA</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B154" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D154" s="44"/>
+      <c r="E154" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F154" s="35" t="str">
+        <f t="shared" si="10"/>
+        <v>TyE_VIISS</v>
+      </c>
+      <c r="G154" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>TyE_VIISS_Voluntariado Tec</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J154" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>TyE_VIISS_Voluntariado Tec_CCTA</v>
+      </c>
+      <c r="K154" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TyE_VIISS_Voluntariado Tec_SCTA</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B155" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D155" s="7"/>
+      <c r="E155" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F155" s="35" t="str">
+        <f t="shared" si="10"/>
+        <v>TyE_VPD</v>
+      </c>
+      <c r="G155" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>TyE_VPD_Exatec</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J155" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>TyE_VPD_Exatec_CCTA</v>
+      </c>
+      <c r="K155" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TyE_VPD_Exatec_SCTA</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B156" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D156" s="44"/>
+      <c r="E156" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F156" s="35" t="str">
+        <f t="shared" si="10"/>
+        <v>TyE_VPD</v>
+      </c>
+      <c r="G156" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>TyE_VPD_Filantropia</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J156" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>TyE_VPD_Filantropia_CCTA</v>
+      </c>
+      <c r="K156" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TyE_VPD_Filantropia_SCTA</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B157" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D157" s="44"/>
+      <c r="E157" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F157" s="35" t="str">
+        <f t="shared" si="10"/>
+        <v>TyE_VPD</v>
+      </c>
+      <c r="G157" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>TyE_VPD_Súmate</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J157" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>TyE_VPD_Súmate_CCTA</v>
+      </c>
+      <c r="K157" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TyE_VPD_Súmate_SCTA</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B158" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D158" s="7"/>
+      <c r="E158" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="F158" s="35" t="str">
+        <f t="shared" si="10"/>
+        <v>TyE_VPF</v>
+      </c>
+      <c r="G158" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>TyE_VPF_Market Tec</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J158" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>TyE_VPF_Market Tec_CCTA</v>
+      </c>
+      <c r="K158" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TyE_VPF_Market Tec_SCTA</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B159" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D159" s="44"/>
+      <c r="E159" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F159" s="35" t="str">
+        <f t="shared" si="10"/>
+        <v>TyE_VPICC</v>
+      </c>
+      <c r="G159" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>TyE_VPICC_Compromiso con la integridad</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J159" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>TyE_VPICC_Compromiso con la integridad_CCTA</v>
+      </c>
+      <c r="K159" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TyE_VPICC_Compromiso con la integridad_SCTA</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="B160" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D160" s="7"/>
+      <c r="E160" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F160" s="35" t="str">
+        <f t="shared" si="10"/>
+        <v>TyE_VPO</v>
+      </c>
+      <c r="G160" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>TyE_VPO_Borregos</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J160" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>TyE_VPO_Borregos_CCTA</v>
+      </c>
+      <c r="K160" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TyE_VPO_Borregos_SCTA</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B161" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D161" s="7"/>
+      <c r="E161" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F161" s="35" t="str">
+        <f t="shared" si="10"/>
+        <v>TyE_VPO</v>
+      </c>
+      <c r="G161" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>TyE_VPO_FBA</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I161" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J161" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>TyE_VPO_FBA_CCTA</v>
+      </c>
+      <c r="K161" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TyE_VPO_FBA_SCTA</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B162" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D162" s="7"/>
+      <c r="E162" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F162" s="35" t="str">
+        <f t="shared" si="10"/>
+        <v>TyE_VPO</v>
+      </c>
+      <c r="G162" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>TyE_VPO_ProTect</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J162" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>TyE_VPO_ProTect_CCTA</v>
+      </c>
+      <c r="K162" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TyE_VPO_ProTect_SCTA</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B163" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D163" s="7"/>
+      <c r="E163" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F163" s="35" t="str">
+        <f t="shared" si="10"/>
+        <v>TyE_VPO</v>
+      </c>
+      <c r="G163" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>TyE_VPO_TecFood</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I163" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J163" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>TyE_VPO_TecFood_CCTA</v>
+      </c>
+      <c r="K163" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TyE_VPO_TecFood_SCTA</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B164" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D164" s="7"/>
+      <c r="E164" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F164" s="35" t="str">
+        <f t="shared" si="10"/>
+        <v>TyE_VPO</v>
+      </c>
+      <c r="G164" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>TyE_VPO_TecReview</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J164" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>TyE_VPO_TecReview_CCTA</v>
+      </c>
+      <c r="K164" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TyE_VPO_TecReview_SCTA</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B165" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D165" s="7"/>
+      <c r="E165" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F165" s="35" t="str">
+        <f t="shared" si="10"/>
+        <v>TyE_VPO</v>
+      </c>
+      <c r="G165" s="33" t="str">
+        <f t="shared" si="11"/>
+        <v>TyE_VPO_TecStore</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I165" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J165" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>TyE_VPO_TecStore_CCTA</v>
+      </c>
+      <c r="K165" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TyE_VPO_TecStore_SCTA</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K1" xr:uid="{2E1171F0-6A3E-4532-AEB2-6D6935A4337D}"/>
+  <hyperlinks>
+    <hyperlink ref="A109" r:id="rId1" xr:uid="{F14F7B81-8CA9-4E4B-995D-9AEB1EE391CC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520A1C47-7586-4293-9779-35D19E539CD2}">
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13106,11 +19654,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="46" t="s">
         <v>397</v>
       </c>
       <c r="C2" t="str">
-        <f>TEXT(D2,"mmmm")&amp;" "&amp;TEXT(D2,"aaaa")</f>
+        <f t="shared" ref="C2:C16" si="0">TEXT(D2,"mmmm")&amp;" "&amp;TEXT(D2,"aaaa")</f>
         <v>agosto 2022</v>
       </c>
       <c r="D2" s="29">
@@ -13151,11 +19699,11 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="46" t="s">
         <v>397</v>
       </c>
       <c r="C3" t="str">
-        <f>TEXT(D3,"mmmm")&amp;" "&amp;TEXT(D3,"aaaa")</f>
+        <f t="shared" si="0"/>
         <v>agosto 2022</v>
       </c>
       <c r="D3" s="29">
@@ -13196,11 +19744,11 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="46" t="s">
         <v>397</v>
       </c>
       <c r="C4" t="str">
-        <f>TEXT(D4,"mmmm")&amp;" "&amp;TEXT(D4,"aaaa")</f>
+        <f t="shared" si="0"/>
         <v>agosto 2022</v>
       </c>
       <c r="D4" s="29">
@@ -13241,11 +19789,11 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="46" t="s">
         <v>413</v>
       </c>
       <c r="C5" t="str">
-        <f>TEXT(D5,"mmmm")&amp;" "&amp;TEXT(D5,"aaaa")</f>
+        <f t="shared" si="0"/>
         <v>agosto 2022</v>
       </c>
       <c r="D5" s="29">
@@ -13286,11 +19834,11 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B6" s="46" t="s">
         <v>415</v>
       </c>
       <c r="C6" t="str">
-        <f>TEXT(D6,"mmmm")&amp;" "&amp;TEXT(D6,"aaaa")</f>
+        <f t="shared" si="0"/>
         <v>septiembre 2022</v>
       </c>
       <c r="D6" s="29">
@@ -13331,11 +19879,11 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="46" t="s">
         <v>413</v>
       </c>
       <c r="C7" t="str">
-        <f>TEXT(D7,"mmmm")&amp;" "&amp;TEXT(D7,"aaaa")</f>
+        <f t="shared" si="0"/>
         <v>septiembre 2022</v>
       </c>
       <c r="D7" s="29">
@@ -13376,11 +19924,11 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="B8" s="46" t="s">
         <v>419</v>
       </c>
       <c r="C8" t="str">
-        <f>TEXT(D8,"mmmm")&amp;" "&amp;TEXT(D8,"aaaa")</f>
+        <f t="shared" si="0"/>
         <v>octubre 2022</v>
       </c>
       <c r="D8" s="29">
@@ -13421,11 +19969,11 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="B9" s="46" t="s">
         <v>419</v>
       </c>
       <c r="C9" t="str">
-        <f>TEXT(D9,"mmmm")&amp;" "&amp;TEXT(D9,"aaaa")</f>
+        <f t="shared" si="0"/>
         <v>octubre 2022</v>
       </c>
       <c r="D9" s="29">
@@ -13467,11 +20015,11 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" t="s">
+      <c r="B10" s="46" t="s">
         <v>423</v>
       </c>
       <c r="C10" t="str">
-        <f>TEXT(D10,"mmmm")&amp;" "&amp;TEXT(D10,"aaaa")</f>
+        <f t="shared" si="0"/>
         <v>octubre 2022</v>
       </c>
       <c r="D10" s="29">
@@ -13513,11 +20061,11 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" t="s">
+      <c r="B11" s="46" t="s">
         <v>423</v>
       </c>
       <c r="C11" t="str">
-        <f>TEXT(D11,"mmmm")&amp;" "&amp;TEXT(D11,"aaaa")</f>
+        <f t="shared" si="0"/>
         <v>octubre 2022</v>
       </c>
       <c r="D11" s="29">
@@ -13558,11 +20106,11 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="B12" s="46" t="s">
         <v>423</v>
       </c>
       <c r="C12" t="str">
-        <f>TEXT(D12,"mmmm")&amp;" "&amp;TEXT(D12,"aaaa")</f>
+        <f t="shared" si="0"/>
         <v>octubre 2022</v>
       </c>
       <c r="D12" s="29">
@@ -13604,11 +20152,11 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" t="s">
+      <c r="B13" s="46" t="s">
         <v>427</v>
       </c>
       <c r="C13" t="str">
-        <f>TEXT(D13,"mmmm")&amp;" "&amp;TEXT(D13,"aaaa")</f>
+        <f t="shared" si="0"/>
         <v>octubre 2022</v>
       </c>
       <c r="D13" s="29">
@@ -13650,11 +20198,11 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" t="s">
+      <c r="B14" s="46" t="s">
         <v>427</v>
       </c>
       <c r="C14" t="str">
-        <f>TEXT(D14,"mmmm")&amp;" "&amp;TEXT(D14,"aaaa")</f>
+        <f t="shared" si="0"/>
         <v>octubre 2022</v>
       </c>
       <c r="D14" s="29">
@@ -13695,11 +20243,11 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="B15" s="46" t="s">
         <v>397</v>
       </c>
       <c r="C15" t="str">
-        <f>TEXT(D15,"mmmm")&amp;" "&amp;TEXT(D15,"aaaa")</f>
+        <f t="shared" si="0"/>
         <v>octubre 2022</v>
       </c>
       <c r="D15" s="29">
@@ -13740,11 +20288,11 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="B16" s="46" t="s">
         <v>397</v>
       </c>
       <c r="C16" t="str">
-        <f>TEXT(D16,"mmmm")&amp;" "&amp;TEXT(D16,"aaaa")</f>
+        <f t="shared" si="0"/>
         <v>octubre 2022</v>
       </c>
       <c r="D16" s="29">

--- a/Campañas pendientes.xlsx
+++ b/Campañas pendientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecmx-my.sharepoint.com/personal/a01741351_tec_mx/Documents/Documents/Tec de Monterrey/Semestre 7/OCJ/Dashboards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{7137E4FC-1B98-4680-8E75-7786C07613C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7303E4B-259A-41BE-89A1-4913F968891F}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{7137E4FC-1B98-4680-8E75-7786C07613C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4322074-D571-4571-B987-AB6AE16E5194}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="4" xr2:uid="{B7851BD7-3B65-466B-849C-0279DBEF9901}"/>
   </bookViews>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2887" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2920" uniqueCount="496">
   <si>
     <t>Iniciativa</t>
   </si>
@@ -1539,6 +1539,57 @@
   </si>
   <si>
     <t>Borregos</t>
+  </si>
+  <si>
+    <t>Mabely Garcia</t>
+  </si>
+  <si>
+    <t>flexcatedras05</t>
+  </si>
+  <si>
+    <t>LanzamientoLibroCEC02</t>
+  </si>
+  <si>
+    <t>flexcatedras04</t>
+  </si>
+  <si>
+    <t>STDScienceSummit02</t>
+  </si>
+  <si>
+    <t>Vp desarollo</t>
+  </si>
+  <si>
+    <t>Priscilla Juarez</t>
+  </si>
+  <si>
+    <t>flexcatedras01</t>
+  </si>
+  <si>
+    <t>beneficios</t>
+  </si>
+  <si>
+    <t>LanzamientoLibroCEC01</t>
+  </si>
+  <si>
+    <t>beneficiostecsalud01</t>
+  </si>
+  <si>
+    <t>Tecsalud</t>
+  </si>
+  <si>
+    <t>ArroyoVivo</t>
+  </si>
+  <si>
+    <t>Viiss</t>
+  </si>
+  <si>
+    <t>evento01</t>
+  </si>
+  <si>
+    <t>Perfil Unico01</t>
+  </si>
+  <si>
+    <t>Total de usuarios</t>
   </si>
 </sst>
 </file>
@@ -1876,6 +1927,54 @@
   <dxfs count="25">
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2132,30 +2231,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2326,30 +2401,6 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2364,39 +2415,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC22D5E6-3830-4D31-9B0E-8D24BE515ECF}" name="Iniciativas_Mes" displayName="Iniciativas_Mes" ref="A1:G153" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC22D5E6-3830-4D31-9B0E-8D24BE515ECF}" name="Iniciativas_Mes" displayName="Iniciativas_Mes" ref="A1:G153" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A1:G153" xr:uid="{CC22D5E6-3830-4D31-9B0E-8D24BE515ECF}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F07AF7A7-864B-4CC8-990F-971327F62E83}" name="Iniciativa" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{74B45AF4-725C-4CCD-8469-4D217B7E4E6A}" name="Estatus en campañas identificadas" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{6994EBBF-C7D7-42F8-9EAC-E9B6D2A99FBF}" name="MITEC" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{47F57C93-73BA-4F89-892D-D9E632EDAA07}" name="Responsable" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{9B039677-9007-4AD6-9EDE-939D8740A852}" name="Número de clics" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{EDC003B8-AD6E-4906-964B-3F414F6A34D0}" name="Mes" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{F07AF7A7-864B-4CC8-990F-971327F62E83}" name="Iniciativa" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{74B45AF4-725C-4CCD-8469-4D217B7E4E6A}" name="Estatus en campañas identificadas" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{6994EBBF-C7D7-42F8-9EAC-E9B6D2A99FBF}" name="MITEC" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{47F57C93-73BA-4F89-892D-D9E632EDAA07}" name="Responsable" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{9B039677-9007-4AD6-9EDE-939D8740A852}" name="Número de clics" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{EDC003B8-AD6E-4906-964B-3F414F6A34D0}" name="Mes" dataDxfId="17">
       <calculatedColumnFormula>TEXT(G2,"mmmm")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{488B9621-CB26-475F-917F-A10A9DB16787}" name="Mes [Fecha]" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{488B9621-CB26-475F-917F-A10A9DB16787}" name="Mes [Fecha]" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B8DE8896-CF9B-435F-99E4-A721B5FC46E9}" name="Iniciativas_Mes3" displayName="Iniciativas_Mes3" ref="A1:J42" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B8DE8896-CF9B-435F-99E4-A721B5FC46E9}" name="Iniciativas_Mes3" displayName="Iniciativas_Mes3" ref="A1:J42" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:J42" xr:uid="{B8DE8896-CF9B-435F-99E4-A721B5FC46E9}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{D2209629-4391-4F36-99E0-BBEAA69322DF}" name="Iniciativa [algunos nombres sugeridos]" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{3523913F-863D-405D-9E48-FAFA58352E9A}" name="1er prefijo (TyE)" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{23B65720-66E8-4F2D-9FA0-E877F1C9B761}" name="2do prefijo (pilar)" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{CCCB372E-52C8-44F4-B24B-EC668C9769C6}" name="3er prefijo (area o VP)" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{FF98674D-529E-4F10-8CF9-855DDF3E3B07}" name="Nombre de campaña" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{AACD2F83-435F-4B66-8432-C157C362AEE0}" name="MITEC" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{410EA000-2ABD-4626-9CC1-C712C7B5EEC9}" name="Responsable" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{25D4C291-17D3-41F1-9FF9-1623B6B08C2C}" name="Número de clics" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{135AD113-6340-475C-92EC-5476C01C2DCF}" name="Mes" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{D2209629-4391-4F36-99E0-BBEAA69322DF}" name="Iniciativa [algunos nombres sugeridos]" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{3523913F-863D-405D-9E48-FAFA58352E9A}" name="1er prefijo (TyE)" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{23B65720-66E8-4F2D-9FA0-E877F1C9B761}" name="2do prefijo (pilar)" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{CCCB372E-52C8-44F4-B24B-EC668C9769C6}" name="3er prefijo (area o VP)" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{FF98674D-529E-4F10-8CF9-855DDF3E3B07}" name="Nombre de campaña" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{AACD2F83-435F-4B66-8432-C157C362AEE0}" name="MITEC" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{410EA000-2ABD-4626-9CC1-C712C7B5EEC9}" name="Responsable" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{25D4C291-17D3-41F1-9FF9-1623B6B08C2C}" name="Número de clics" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{135AD113-6340-475C-92EC-5476C01C2DCF}" name="Mes" dataDxfId="5">
       <calculatedColumnFormula>TEXT(J2,"mmmm")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{006097D6-9722-495C-B489-C96D39B7D15D}" name="Mes [Fecha]" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{006097D6-9722-495C-B489-C96D39B7D15D}" name="Mes [Fecha]" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12197,12 +12248,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H80">
-    <cfRule type="expression" dxfId="24" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>#REF!="No encontrado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:G153">
-    <cfRule type="expression" dxfId="23" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$B2="No encontrado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13258,12 +13309,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K20">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>#REF!="No encontrado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:J42">
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>#REF!="No encontrado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13279,7 +13330,7 @@
   <dimension ref="A1:K165"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13294,7 +13345,7 @@
     <col min="11" max="11" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -19593,16 +19644,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520A1C47-7586-4293-9779-35D19E539CD2}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
     <col min="6" max="6" width="38.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -20332,6 +20384,259 @@
         <v>5.7629999999999999</v>
       </c>
     </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="3" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>494</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" t="str">
+        <f>TEXT(F27,"mmmm")&amp;" "&amp;TEXT(F27,"aaaa")</f>
+        <v>febrero 2023</v>
+      </c>
+      <c r="F27" s="29">
+        <v>44958</v>
+      </c>
+      <c r="G27">
+        <v>604</v>
+      </c>
+      <c r="H27">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>493</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" t="str">
+        <f>TEXT(F28,"mmmm")&amp;" "&amp;TEXT(F28,"aaaa")</f>
+        <v>febrero 2023</v>
+      </c>
+      <c r="F28" s="29">
+        <v>44958</v>
+      </c>
+      <c r="G28">
+        <v>561</v>
+      </c>
+      <c r="H28">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>492</v>
+      </c>
+      <c r="C29" t="s">
+        <v>491</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="str">
+        <f>TEXT(F29,"mmmm")&amp;" "&amp;TEXT(F29,"aaaa")</f>
+        <v>febrero 2023</v>
+      </c>
+      <c r="F29" s="29">
+        <v>44958</v>
+      </c>
+      <c r="G29">
+        <v>309</v>
+      </c>
+      <c r="H29">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>490</v>
+      </c>
+      <c r="C30" t="s">
+        <v>489</v>
+      </c>
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" t="str">
+        <f>TEXT(F30,"mmmm")&amp;" "&amp;TEXT(F30,"aaaa")</f>
+        <v>febrero 2023</v>
+      </c>
+      <c r="F30" s="29">
+        <v>44958</v>
+      </c>
+      <c r="G30">
+        <v>299</v>
+      </c>
+      <c r="H30">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>488</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" t="str">
+        <f>TEXT(F31,"mmmm")&amp;" "&amp;TEXT(F31,"aaaa")</f>
+        <v>febrero 2023</v>
+      </c>
+      <c r="F31" s="29">
+        <v>44958</v>
+      </c>
+      <c r="G31">
+        <v>247</v>
+      </c>
+      <c r="H31">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>487</v>
+      </c>
+      <c r="C32" t="s">
+        <v>486</v>
+      </c>
+      <c r="D32" t="s">
+        <v>485</v>
+      </c>
+      <c r="E32" t="str">
+        <f>TEXT(F32,"mmmm")&amp;" "&amp;TEXT(F32,"aaaa")</f>
+        <v>febrero 2023</v>
+      </c>
+      <c r="F32" s="29">
+        <v>44958</v>
+      </c>
+      <c r="G32">
+        <v>247</v>
+      </c>
+      <c r="H32">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>484</v>
+      </c>
+      <c r="C33" t="s">
+        <v>483</v>
+      </c>
+      <c r="D33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" t="str">
+        <f>TEXT(F33,"mmmm")&amp;" "&amp;TEXT(F33,"aaaa")</f>
+        <v>febrero 2023</v>
+      </c>
+      <c r="F33" s="29">
+        <v>44958</v>
+      </c>
+      <c r="G33">
+        <v>174</v>
+      </c>
+      <c r="H33">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>482</v>
+      </c>
+      <c r="D34" t="s">
+        <v>479</v>
+      </c>
+      <c r="E34" t="str">
+        <f>TEXT(F34,"mmmm")&amp;" "&amp;TEXT(F34,"aaaa")</f>
+        <v>febrero 2023</v>
+      </c>
+      <c r="F34" s="29">
+        <v>44958</v>
+      </c>
+      <c r="G34">
+        <v>88</v>
+      </c>
+      <c r="H34">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>481</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" t="str">
+        <f>TEXT(F35,"mmmm")&amp;" "&amp;TEXT(F35,"aaaa")</f>
+        <v>febrero 2023</v>
+      </c>
+      <c r="F35" s="29">
+        <v>44958</v>
+      </c>
+      <c r="G35">
+        <v>71</v>
+      </c>
+      <c r="H35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>480</v>
+      </c>
+      <c r="D36" t="s">
+        <v>479</v>
+      </c>
+      <c r="E36" t="str">
+        <f>TEXT(F36,"mmmm")&amp;" "&amp;TEXT(F36,"aaaa")</f>
+        <v>febrero 2023</v>
+      </c>
+      <c r="F36" s="29">
+        <v>44958</v>
+      </c>
+      <c r="G36">
+        <v>63</v>
+      </c>
+      <c r="H36">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
